--- a/Projects/TNUVAILV2/Tests/Data/test_case.xlsx
+++ b/Projects/TNUVAILV2/Tests/Data/test_case.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="matches" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,29 +13,30 @@
     <sheet name="scif" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$J$52</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$J$121</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$M$14</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$J$127</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">matches!$A$1:$J$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">matches!$A$1:$J$127</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">matches!$A$1:$J$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">matches!$A$1:$J$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$J$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">matches!$A$1:$J$121</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">matches!$A$1:$J$121</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$M$14</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">scif!$A$1:$M$14</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">scif!$A$1:$M$14</definedName>
@@ -50,6 +51,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">scif!$A$1:$M$14</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">scif!$A$1:$M$14</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">scif!$A$1:$M$14</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">scif!$A$1:$M$14</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="63">
   <si>
     <t xml:space="preserve">probe_match_fk</t>
   </si>
@@ -259,7 +261,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -301,8 +303,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="FreeSans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,6 +332,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -369,7 +382,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -390,6 +403,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -407,10 +428,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -450,6 +467,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -462,7 +491,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -535,27 +564,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:14"/>
+  <dimension ref="1:19"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.1989795918367"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1000,41 +1028,206 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="0" t="n">
+      <c r="B14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="0" t="n">
+      <c r="E14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="5" t="n">
         <f aca="false">VLOOKUP(H14, all_products!$A$2:$B$17, 2, 0)</f>
         <v>8</v>
       </c>
-      <c r="J14" s="1" t="n">
+      <c r="J14" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <f aca="false">VLOOKUP(H15, all_products!$A$2:$B$17, 2, 0)</f>
+        <v>7</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <f aca="false">VLOOKUP(H16, all_products!$A$2:$B$17, 2, 0)</f>
+        <v>11</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <f aca="false">VLOOKUP(H17, all_products!$A$2:$B$17, 2, 0)</f>
+        <v>12</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <f aca="false">VLOOKUP(H18, all_products!$A$2:$B$17, 2, 0)</f>
+        <v>15</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <f aca="false">VLOOKUP(H19, all_products!$A$2:$B$22, 2, 0)</f>
+        <v>10</v>
+      </c>
+      <c r="J19" s="1" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J52"/>
+  <autoFilter ref="A1:J121"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1053,66 +1246,65 @@
   </sheetPr>
   <dimension ref="1:21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.1887755102041"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.0663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.7091836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1138,7 +1330,7 @@
       <c r="G2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="J2" s="0" t="s">
@@ -1167,7 +1359,7 @@
       <c r="G3" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="8" t="s">
         <v>25</v>
       </c>
       <c r="J3" s="0" t="s">
@@ -1196,7 +1388,7 @@
       <c r="G4" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="8" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="0" t="s">
@@ -1225,7 +1417,7 @@
       <c r="G5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="8" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="0" t="s">
@@ -1254,39 +1446,39 @@
       <c r="G6" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="8" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+    <row r="7" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="9" t="n">
         <v>262</v>
       </c>
-      <c r="F7" s="7" t="n">
+      <c r="F7" s="9" t="n">
         <v>810</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1312,7 +1504,7 @@
       <c r="G8" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="8" t="s">
         <v>38</v>
       </c>
       <c r="J8" s="0" t="s">
@@ -1341,7 +1533,7 @@
       <c r="G9" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="8" t="s">
         <v>38</v>
       </c>
       <c r="J9" s="0" t="s">
@@ -1370,7 +1562,7 @@
       <c r="G10" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="8" t="s">
         <v>38</v>
       </c>
       <c r="J10" s="0" t="s">
@@ -1399,69 +1591,69 @@
       <c r="G11" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="8" t="s">
         <v>38</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="n">
+    <row r="12" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="n">
+      <c r="B12" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="10" t="n">
+      <c r="E12" s="5" t="n">
         <v>260</v>
       </c>
-      <c r="F12" s="10" t="n">
+      <c r="F12" s="5" t="n">
         <v>810</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="13" t="s">
         <v>26</v>
       </c>
       <c r="AMJ12" s="0"/>
     </row>
-    <row r="13" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="n">
+    <row r="13" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="n">
+      <c r="B13" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="13" t="n">
+      <c r="E13" s="14" t="n">
         <v>269</v>
       </c>
-      <c r="F13" s="13" t="n">
+      <c r="F13" s="14" t="n">
         <v>810</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="16" t="s">
         <v>26</v>
       </c>
       <c r="AMJ13" s="0"/>
@@ -1488,7 +1680,7 @@
       <c r="G14" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="15" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="0" t="s">
@@ -1517,51 +1709,51 @@
       <c r="G15" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="15" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="n">
+    <row r="16" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="n">
+      <c r="B16" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="10" t="n">
+      <c r="E16" s="5" t="n">
         <v>260</v>
       </c>
-      <c r="F16" s="10" t="n">
+      <c r="F16" s="5" t="n">
         <v>810</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="13" t="s">
         <v>51</v>
       </c>
       <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="n">
+    <row r="17" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="n">
+      <c r="B17" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D17" s="0" t="s">
@@ -1570,16 +1762,16 @@
       <c r="E17" s="0" t="n">
         <v>252</v>
       </c>
-      <c r="F17" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G17" s="13" t="s">
+      <c r="F17" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="14" t="s">
         <v>26</v>
       </c>
       <c r="AMJ17" s="0"/>
@@ -1606,13 +1798,13 @@
       <c r="G18" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="8" t="s">
         <v>38</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="16"/>
+      <c r="K18" s="17"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -1636,13 +1828,13 @@
       <c r="G19" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="15" t="s">
         <v>25</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="K19" s="16"/>
+      <c r="K19" s="17"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -1666,13 +1858,13 @@
       <c r="G20" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="8" t="s">
         <v>38</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="16"/>
+      <c r="K20" s="17"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -1696,7 +1888,7 @@
       <c r="G21" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="8" t="s">
         <v>25</v>
       </c>
       <c r="J21" s="0" t="s">
@@ -1719,32 +1911,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="55.6173469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.9438775510204"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.77551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1787,929 +1977,1279 @@
       <c r="M1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$J$2:$J$101,matches!$B$2:$B$101,$A2,matches!$H$2:$H$101,$B2)</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$J$2:$J$101,matches!$B$2:$B$101,$A2,matches!$H$2:$H$101,$B2, matches!$F$2:$F$101, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$I$2:$I$101,matches!$B$2:$B$101,$A2,matches!$H$2:$H$101,$B2)</f>
+    <row r="2" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A2,matches!$H$2:$H$95,$B2)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A2,matches!$H$2:$H$95,$B2, matches!$F$2:$F$95, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A2,matches!$H$2:$H$95,$B2)</f>
         <v>10</v>
       </c>
-      <c r="F2" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$I$2:$I$101,matches!$B$2:$B$101,$A2,matches!$H$2:$H$101,$B2, matches!$F$2:$F$101, 1)</f>
+      <c r="F2" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A2,matches!$H$2:$H$95,$B2, matches!$F$2:$F$95, 1)</f>
         <v>10</v>
       </c>
-      <c r="G2" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" s="18" t="s">
+      <c r="G2" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="17" t="str">
+      <c r="I2" s="18" t="str">
         <f aca="false">VLOOKUP(B2,all_products!$A$2:$C$13, 3, 0)</f>
         <v>Tnuva Product 1</v>
       </c>
-      <c r="J2" s="17" t="str">
+      <c r="J2" s="18" t="str">
         <f aca="false">VLOOKUP($B2, all_products!$A$2:$G$14, 4, 0)</f>
         <v>Pickled drinks</v>
       </c>
-      <c r="K2" s="17" t="n">
+      <c r="K2" s="18" t="n">
         <f aca="false">VLOOKUP($B2, all_products!$A$2:$G$14, 5, 0)</f>
         <v>272</v>
       </c>
-      <c r="L2" s="17" t="n">
+      <c r="L2" s="18" t="n">
         <f aca="false">VLOOKUP($B2, all_products!$A$2:$G$14, 6, 0)</f>
         <v>810</v>
       </c>
-      <c r="M2" s="17" t="str">
+      <c r="M2" s="18" t="str">
         <f aca="false">VLOOKUP($B2, all_products!$A$2:$G$14, 7, 0)</f>
         <v>Tnuva</v>
       </c>
-      <c r="N2" s="17" t="str">
+      <c r="N2" s="18" t="str">
         <f aca="false">VLOOKUP($B2, all_products!$A$2:$L$36, 8, 0)</f>
         <v>חלבי</v>
       </c>
-      <c r="O2" s="17" t="n">
+      <c r="O2" s="18" t="n">
         <f aca="false">VLOOKUP($B2, all_products!$A$2:$L$36, 9, 0)</f>
         <v>0</v>
       </c>
-      <c r="P2" s="17" t="str">
+      <c r="P2" s="18" t="str">
         <f aca="false">VLOOKUP($B2, all_products!$A$2:$L$36, 10, 0)</f>
         <v>SKU</v>
       </c>
-      <c r="Q2" s="17" t="n">
+      <c r="Q2" s="18" t="n">
         <f aca="false">VLOOKUP($B2, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R2" s="17" t="n">
+      <c r="R2" s="18" t="n">
         <f aca="false">VLOOKUP($B2, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$J$2:$J$101,matches!$B$2:$B$101,$A3,matches!$H$2:$H$101,$B3)</f>
-        <v>1</v>
-      </c>
-      <c r="D3" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$J$2:$J$101,matches!$B$2:$B$101,$A3,matches!$H$2:$H$101,$B3, matches!$F$2:$F$101, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="E3" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$I$2:$I$101,matches!$B$2:$B$101,$A3,matches!$H$2:$H$101,$B3)</f>
+    <row r="3" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A3,matches!$H$2:$H$95,$B3)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A3,matches!$H$2:$H$95,$B3, matches!$F$2:$F$95, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A3,matches!$H$2:$H$95,$B3)</f>
         <v>5</v>
       </c>
-      <c r="F3" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$I$2:$I$101,matches!$B$2:$B$101,$A3,matches!$H$2:$H$101,$B3, matches!$F$2:$F$101, 1)</f>
+      <c r="F3" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A3,matches!$H$2:$H$95,$B3, matches!$F$2:$F$95, 1)</f>
         <v>5</v>
       </c>
-      <c r="G3" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" s="18" t="s">
+      <c r="G3" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="17" t="str">
+      <c r="I3" s="18" t="str">
         <f aca="false">VLOOKUP(B3,all_products!$A$2:$C$13, 3, 0)</f>
         <v>Tnuva Product 2</v>
       </c>
-      <c r="J3" s="17" t="str">
+      <c r="J3" s="18" t="str">
         <f aca="false">VLOOKUP($B3, all_products!$A$2:$G$14, 4, 0)</f>
         <v>Soft</v>
       </c>
-      <c r="K3" s="17" t="n">
+      <c r="K3" s="18" t="n">
         <f aca="false">VLOOKUP($B3, all_products!$A$2:$G$14, 5, 0)</f>
         <v>264</v>
       </c>
-      <c r="L3" s="17" t="n">
+      <c r="L3" s="18" t="n">
         <f aca="false">VLOOKUP($B3, all_products!$A$2:$G$14, 6, 0)</f>
         <v>810</v>
       </c>
-      <c r="M3" s="17" t="str">
+      <c r="M3" s="18" t="str">
         <f aca="false">VLOOKUP($B3, all_products!$A$2:$G$14, 7, 0)</f>
         <v>Tnuva</v>
       </c>
-      <c r="N3" s="17" t="str">
+      <c r="N3" s="18" t="str">
         <f aca="false">VLOOKUP($B3, all_products!$A$2:$L$36, 8, 0)</f>
         <v>חלבי</v>
       </c>
-      <c r="O3" s="17" t="n">
+      <c r="O3" s="18" t="n">
         <f aca="false">VLOOKUP($B3, all_products!$A$2:$L$36, 9, 0)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="17" t="str">
+      <c r="P3" s="18" t="str">
         <f aca="false">VLOOKUP($B3, all_products!$A$2:$L$36, 10, 0)</f>
         <v>SKU</v>
       </c>
-      <c r="Q3" s="17" t="n">
+      <c r="Q3" s="18" t="n">
         <f aca="false">VLOOKUP($B3, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="17" t="n">
+      <c r="R3" s="18" t="n">
         <f aca="false">VLOOKUP($B3, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="17" t="n">
+    <row r="4" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$J$2:$J$101,matches!$B$2:$B$101,$A4,matches!$H$2:$H$101,$B4)</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$J$2:$J$101,matches!$B$2:$B$101,$A4,matches!$H$2:$H$101,$B4, matches!$F$2:$F$101, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="E4" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$I$2:$I$101,matches!$B$2:$B$101,$A4,matches!$H$2:$H$101,$B4)</f>
+      <c r="C4" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A4,matches!$H$2:$H$95,$B4)</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A4,matches!$H$2:$H$95,$B4, matches!$F$2:$F$95, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A4,matches!$H$2:$H$95,$B4)</f>
         <v>15</v>
       </c>
-      <c r="F4" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$I$2:$I$101,matches!$B$2:$B$101,$A4,matches!$H$2:$H$101,$B4, matches!$F$2:$F$101, 1)</f>
+      <c r="F4" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A4,matches!$H$2:$H$95,$B4, matches!$F$2:$F$95, 1)</f>
         <v>15</v>
       </c>
-      <c r="G4" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" s="18" t="s">
+      <c r="G4" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="17" t="str">
+      <c r="I4" s="18" t="str">
         <f aca="false">VLOOKUP(B4,all_products!$A$2:$C$13, 3, 0)</f>
         <v>Tnuva Product 3</v>
       </c>
-      <c r="J4" s="17" t="str">
+      <c r="J4" s="18" t="str">
         <f aca="false">VLOOKUP($B4, all_products!$A$2:$G$14, 4, 0)</f>
         <v>Yogurt</v>
       </c>
-      <c r="K4" s="17" t="n">
+      <c r="K4" s="18" t="n">
         <f aca="false">VLOOKUP($B4, all_products!$A$2:$G$14, 5, 0)</f>
         <v>252</v>
       </c>
-      <c r="L4" s="17" t="n">
+      <c r="L4" s="18" t="n">
         <f aca="false">VLOOKUP($B4, all_products!$A$2:$G$14, 6, 0)</f>
         <v>810</v>
       </c>
-      <c r="M4" s="17" t="str">
+      <c r="M4" s="18" t="str">
         <f aca="false">VLOOKUP($B4, all_products!$A$2:$G$14, 7, 0)</f>
         <v>Tnuva</v>
       </c>
-      <c r="N4" s="17" t="str">
+      <c r="N4" s="18" t="str">
         <f aca="false">VLOOKUP($B4, all_products!$A$2:$L$36, 8, 0)</f>
         <v>חלבי</v>
       </c>
-      <c r="O4" s="17" t="n">
+      <c r="O4" s="18" t="n">
         <f aca="false">VLOOKUP($B4, all_products!$A$2:$L$36, 9, 0)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="17" t="str">
+      <c r="P4" s="18" t="str">
         <f aca="false">VLOOKUP($B4, all_products!$A$2:$L$36, 10, 0)</f>
         <v>SKU</v>
       </c>
-      <c r="Q4" s="17" t="n">
+      <c r="Q4" s="18" t="n">
         <f aca="false">VLOOKUP($B4, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R4" s="17" t="n">
+      <c r="R4" s="18" t="n">
         <f aca="false">VLOOKUP($B4, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="17" t="n">
+    <row r="5" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$J$2:$J$101,matches!$B$2:$B$101,$A5,matches!$H$2:$H$101,$B5)</f>
-        <v>1</v>
-      </c>
-      <c r="D5" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$J$2:$J$101,matches!$B$2:$B$101,$A5,matches!$H$2:$H$101,$B5, matches!$F$2:$F$101, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="E5" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$I$2:$I$101,matches!$B$2:$B$101,$A5,matches!$H$2:$H$101,$B5)</f>
+      <c r="C5" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A5,matches!$H$2:$H$95,$B5)</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A5,matches!$H$2:$H$95,$B5, matches!$F$2:$F$95, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A5,matches!$H$2:$H$95,$B5)</f>
         <v>20</v>
       </c>
-      <c r="F5" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$I$2:$I$101,matches!$B$2:$B$101,$A5,matches!$H$2:$H$101,$B5, matches!$F$2:$F$101, 1)</f>
+      <c r="F5" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A5,matches!$H$2:$H$95,$B5, matches!$F$2:$F$95, 1)</f>
         <v>20</v>
       </c>
-      <c r="G5" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" s="18" t="s">
+      <c r="G5" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="17" t="str">
+      <c r="I5" s="18" t="str">
         <f aca="false">VLOOKUP(B5,all_products!$A$2:$C$13, 3, 0)</f>
         <v>Tnuva Product 4</v>
       </c>
-      <c r="J5" s="17" t="str">
+      <c r="J5" s="18" t="str">
         <f aca="false">VLOOKUP($B5, all_products!$A$2:$G$14, 4, 0)</f>
         <v>Melted</v>
       </c>
-      <c r="K5" s="17" t="n">
+      <c r="K5" s="18" t="n">
         <f aca="false">VLOOKUP($B5, all_products!$A$2:$G$14, 5, 0)</f>
         <v>262</v>
       </c>
-      <c r="L5" s="17" t="n">
+      <c r="L5" s="18" t="n">
         <f aca="false">VLOOKUP($B5, all_products!$A$2:$G$14, 6, 0)</f>
         <v>810</v>
       </c>
-      <c r="M5" s="17" t="str">
+      <c r="M5" s="18" t="str">
         <f aca="false">VLOOKUP($B5, all_products!$A$2:$G$14, 7, 0)</f>
         <v>Tnuva</v>
       </c>
-      <c r="N5" s="17" t="str">
+      <c r="N5" s="18" t="str">
         <f aca="false">VLOOKUP($B5, all_products!$A$2:$L$36, 8, 0)</f>
         <v>חלבי</v>
       </c>
-      <c r="O5" s="17" t="n">
+      <c r="O5" s="18" t="n">
         <f aca="false">VLOOKUP($B5, all_products!$A$2:$L$36, 9, 0)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="17" t="str">
+      <c r="P5" s="18" t="str">
         <f aca="false">VLOOKUP($B5, all_products!$A$2:$L$36, 10, 0)</f>
         <v>SKU</v>
       </c>
-      <c r="Q5" s="17" t="n">
+      <c r="Q5" s="18" t="n">
         <f aca="false">VLOOKUP($B5, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="17" t="n">
+      <c r="R5" s="18" t="n">
         <f aca="false">VLOOKUP($B5, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="17" t="n">
+    <row r="6" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$J$2:$J$101,matches!$B$2:$B$101,$A6,matches!$H$2:$H$101,$B6)</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$J$2:$J$101,matches!$B$2:$B$101,$A6,matches!$H$2:$H$101,$B6, matches!$F$2:$F$101, 1)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$I$2:$I$101,matches!$B$2:$B$101,$A6,matches!$H$2:$H$101,$B6)</f>
+      <c r="C6" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A6,matches!$H$2:$H$95,$B6)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A6,matches!$H$2:$H$95,$B6, matches!$F$2:$F$95, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A6,matches!$H$2:$H$95,$B6)</f>
         <v>8</v>
       </c>
-      <c r="F6" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$I$2:$I$101,matches!$B$2:$B$101,$A6,matches!$H$2:$H$101,$B6, matches!$F$2:$F$101, 1)</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" s="18" t="s">
+      <c r="F6" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A6,matches!$H$2:$H$95,$B6, matches!$F$2:$F$95, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="17" t="str">
+      <c r="I6" s="18" t="str">
         <f aca="false">VLOOKUP(B6,all_products!$A$2:$C$13, 3, 0)</f>
         <v>Tnuva Product 5</v>
       </c>
-      <c r="J6" s="17" t="str">
+      <c r="J6" s="18" t="str">
         <f aca="false">VLOOKUP($B6, all_products!$A$2:$G$14, 4, 0)</f>
         <v>Israeli</v>
       </c>
-      <c r="K6" s="17" t="n">
+      <c r="K6" s="18" t="n">
         <f aca="false">VLOOKUP($B6, all_products!$A$2:$G$14, 5, 0)</f>
         <v>254</v>
       </c>
-      <c r="L6" s="17" t="n">
+      <c r="L6" s="18" t="n">
         <f aca="false">VLOOKUP($B6, all_products!$A$2:$G$14, 6, 0)</f>
         <v>810</v>
       </c>
-      <c r="M6" s="17" t="str">
+      <c r="M6" s="18" t="str">
         <f aca="false">VLOOKUP($B6, all_products!$A$2:$G$14, 7, 0)</f>
         <v>Tnuva</v>
       </c>
-      <c r="N6" s="17" t="str">
+      <c r="N6" s="18" t="str">
         <f aca="false">VLOOKUP($B6, all_products!$A$2:$L$36, 8, 0)</f>
         <v>חלבי</v>
       </c>
-      <c r="O6" s="17" t="n">
+      <c r="O6" s="18" t="n">
         <f aca="false">VLOOKUP($B6, all_products!$A$2:$L$36, 9, 0)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="17" t="str">
+      <c r="P6" s="18" t="str">
         <f aca="false">VLOOKUP($B6, all_products!$A$2:$L$36, 10, 0)</f>
         <v>SKU</v>
       </c>
-      <c r="Q6" s="17" t="n">
+      <c r="Q6" s="18" t="n">
         <f aca="false">VLOOKUP($B6, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="17" t="n">
+      <c r="R6" s="18" t="n">
         <f aca="false">VLOOKUP($B6, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="17" t="n">
+    <row r="7" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="C7" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$J$2:$J$101,matches!$B$2:$B$101,$A7,matches!$H$2:$H$101,$B7)</f>
-        <v>1</v>
-      </c>
-      <c r="D7" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$J$2:$J$101,matches!$B$2:$B$101,$A7,matches!$H$2:$H$101,$B7, matches!$F$2:$F$101, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$I$2:$I$101,matches!$B$2:$B$101,$A7,matches!$H$2:$H$101,$B7)</f>
+      <c r="C7" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A7,matches!$H$2:$H$95,$B7)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A7,matches!$H$2:$H$95,$B7, matches!$F$2:$F$95, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A7,matches!$H$2:$H$95,$B7)</f>
         <v>13</v>
       </c>
-      <c r="F7" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$I$2:$I$101,matches!$B$2:$B$101,$A7,matches!$H$2:$H$101,$B7, matches!$F$2:$F$101, 1)</f>
+      <c r="F7" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A7,matches!$H$2:$H$95,$B7, matches!$F$2:$F$95, 1)</f>
         <v>13</v>
       </c>
-      <c r="G7" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" s="18" t="s">
+      <c r="G7" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="17" t="str">
+      <c r="I7" s="18" t="str">
         <f aca="false">VLOOKUP(B7,all_products!$A$2:$C$13, 3, 0)</f>
         <v>Tnuva Product 10</v>
       </c>
-      <c r="J7" s="17" t="str">
+      <c r="J7" s="18" t="str">
         <f aca="false">VLOOKUP($B7, all_products!$A$2:$G$20, 4, 0)</f>
         <v>Sausage/Deli</v>
       </c>
-      <c r="K7" s="17" t="n">
+      <c r="K7" s="18" t="n">
         <f aca="false">VLOOKUP($B7, all_products!$A$2:$G$20, 5, 0)</f>
         <v>260</v>
       </c>
-      <c r="L7" s="17" t="n">
+      <c r="L7" s="18" t="n">
         <f aca="false">VLOOKUP($B7, all_products!$A$2:$G$20, 6, 0)</f>
         <v>810</v>
       </c>
-      <c r="M7" s="17" t="str">
+      <c r="M7" s="18" t="str">
         <f aca="false">VLOOKUP($B7, all_products!$A$2:$G$20, 7, 0)</f>
         <v>Tnuva</v>
       </c>
-      <c r="N7" s="17" t="str">
+      <c r="N7" s="18" t="str">
         <f aca="false">VLOOKUP($B7, all_products!$A$2:$L$36, 8, 0)</f>
         <v>טירת צבי</v>
       </c>
-      <c r="O7" s="17" t="n">
+      <c r="O7" s="18" t="n">
         <f aca="false">VLOOKUP($B7, all_products!$A$2:$L$36, 9, 0)</f>
         <v>0</v>
       </c>
-      <c r="P7" s="17" t="str">
+      <c r="P7" s="18" t="str">
         <f aca="false">VLOOKUP($B7, all_products!$A$2:$L$36, 10, 0)</f>
         <v>SKU</v>
       </c>
-      <c r="Q7" s="17" t="n">
+      <c r="Q7" s="18" t="n">
         <f aca="false">VLOOKUP($B7, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R7" s="17" t="n">
+      <c r="R7" s="18" t="n">
         <f aca="false">VLOOKUP($B7, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="17" t="n">
+    <row r="8" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$J$2:$J$101,matches!$B$2:$B$101,$A8,matches!$H$2:$H$101,$B8)</f>
-        <v>1</v>
-      </c>
-      <c r="D8" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$J$2:$J$101,matches!$B$2:$B$101,$A8,matches!$H$2:$H$101,$B8, matches!$F$2:$F$101, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$I$2:$I$101,matches!$B$2:$B$101,$A8,matches!$H$2:$H$101,$B8)</f>
+      <c r="C8" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A8,matches!$H$2:$H$95,$B8)</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A8,matches!$H$2:$H$95,$B8, matches!$F$2:$F$95, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A8,matches!$H$2:$H$95,$B8)</f>
         <v>7</v>
       </c>
-      <c r="F8" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$I$2:$I$101,matches!$B$2:$B$101,$A8,matches!$H$2:$H$101,$B8, matches!$F$2:$F$101, 1)</f>
+      <c r="F8" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A8,matches!$H$2:$H$95,$B8, matches!$F$2:$F$95, 1)</f>
         <v>7</v>
       </c>
-      <c r="G8" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" s="18" t="s">
+      <c r="G8" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="17" t="str">
+      <c r="I8" s="18" t="str">
         <f aca="false">VLOOKUP(B8,all_products!$A$2:$C$13, 3, 0)</f>
         <v>Tnuva Product 7</v>
       </c>
-      <c r="J8" s="17" t="str">
+      <c r="J8" s="18" t="str">
         <f aca="false">VLOOKUP($B8, all_products!$A$2:$G$20, 4, 0)</f>
         <v>Sausage/Deli</v>
       </c>
-      <c r="K8" s="17" t="n">
+      <c r="K8" s="18" t="n">
         <f aca="false">VLOOKUP($B8, all_products!$A$2:$G$20, 5, 0)</f>
         <v>260</v>
       </c>
-      <c r="L8" s="17" t="n">
+      <c r="L8" s="18" t="n">
         <f aca="false">VLOOKUP($B8, all_products!$A$2:$G$20, 6, 0)</f>
         <v>810</v>
       </c>
-      <c r="M8" s="17" t="str">
+      <c r="M8" s="18" t="str">
         <f aca="false">VLOOKUP($B8, all_products!$A$2:$G$20, 7, 0)</f>
         <v>Tnuva</v>
       </c>
-      <c r="N8" s="17" t="str">
+      <c r="N8" s="18" t="str">
         <f aca="false">VLOOKUP($B8, all_products!$A$2:$L$36, 8, 0)</f>
         <v>טירת צבי</v>
       </c>
-      <c r="O8" s="17" t="n">
+      <c r="O8" s="18" t="n">
         <f aca="false">VLOOKUP($B8, all_products!$A$2:$L$36, 9, 0)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="17" t="str">
+      <c r="P8" s="18" t="str">
         <f aca="false">VLOOKUP($B8, all_products!$A$2:$L$36, 10, 0)</f>
         <v>SKU</v>
       </c>
-      <c r="Q8" s="17" t="n">
+      <c r="Q8" s="18" t="n">
         <f aca="false">VLOOKUP($B8, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R8" s="17" t="n">
+      <c r="R8" s="18" t="n">
         <f aca="false">VLOOKUP($B8, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="17" t="n">
+    <row r="9" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$J$2:$J$101,matches!$B$2:$B$101,$A9,matches!$H$2:$H$101,$B9)</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$J$2:$J$101,matches!$B$2:$B$101,$A9,matches!$H$2:$H$101,$B9, matches!$F$2:$F$101, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$I$2:$I$101,matches!$B$2:$B$101,$A9,matches!$H$2:$H$101,$B9)</f>
+      <c r="C9" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A9,matches!$H$2:$H$95,$B9)</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A9,matches!$H$2:$H$95,$B9, matches!$F$2:$F$95, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A9,matches!$H$2:$H$95,$B9)</f>
         <v>11</v>
       </c>
-      <c r="F9" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$I$2:$I$101,matches!$B$2:$B$101,$A9,matches!$H$2:$H$101,$B9, matches!$F$2:$F$101, 1)</f>
+      <c r="F9" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A9,matches!$H$2:$H$95,$B9, matches!$F$2:$F$95, 1)</f>
         <v>11</v>
       </c>
-      <c r="G9" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" s="18" t="s">
+      <c r="G9" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="17" t="str">
+      <c r="I9" s="18" t="str">
         <f aca="false">VLOOKUP(B9,all_products!$A$2:$C$13, 3, 0)</f>
         <v>Tnuva Product 8</v>
       </c>
-      <c r="J9" s="17" t="str">
+      <c r="J9" s="18" t="str">
         <f aca="false">VLOOKUP($B9, all_products!$A$2:$G$20, 4, 0)</f>
         <v>Sausage/Deli</v>
       </c>
-      <c r="K9" s="17" t="n">
+      <c r="K9" s="18" t="n">
         <f aca="false">VLOOKUP($B9, all_products!$A$2:$G$20, 5, 0)</f>
         <v>260</v>
       </c>
-      <c r="L9" s="17" t="n">
+      <c r="L9" s="18" t="n">
         <f aca="false">VLOOKUP($B9, all_products!$A$2:$G$20, 6, 0)</f>
         <v>810</v>
       </c>
-      <c r="M9" s="17" t="str">
+      <c r="M9" s="18" t="str">
         <f aca="false">VLOOKUP($B9, all_products!$A$2:$G$20, 7, 0)</f>
         <v>Tnuva</v>
       </c>
-      <c r="N9" s="17" t="str">
+      <c r="N9" s="18" t="str">
         <f aca="false">VLOOKUP($B9, all_products!$A$2:$L$36, 8, 0)</f>
         <v>טירת צבי</v>
       </c>
-      <c r="O9" s="17" t="n">
+      <c r="O9" s="18" t="n">
         <f aca="false">VLOOKUP($B9, all_products!$A$2:$L$36, 9, 0)</f>
         <v>0</v>
       </c>
-      <c r="P9" s="17" t="str">
+      <c r="P9" s="18" t="str">
         <f aca="false">VLOOKUP($B9, all_products!$A$2:$L$36, 10, 0)</f>
         <v>SKU</v>
       </c>
-      <c r="Q9" s="17" t="n">
+      <c r="Q9" s="18" t="n">
         <f aca="false">VLOOKUP($B9, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R9" s="17" t="n">
+      <c r="R9" s="18" t="n">
         <f aca="false">VLOOKUP($B9, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="19" t="n">
+      <c r="A10" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="20" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$J$2:$J$101,matches!$B$2:$B$101,$A10,matches!$H$2:$H$101,$B10)</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$J$2:$J$101,matches!$B$2:$B$101,$A10,matches!$H$2:$H$101,$B10, matches!$F$2:$F$101, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$I$2:$I$101,matches!$B$2:$B$101,$A10,matches!$H$2:$H$101,$B10)</f>
+      <c r="C10" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A10,matches!$H$2:$H$95,$B10)</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A10,matches!$H$2:$H$95,$B10, matches!$F$2:$F$95, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A10,matches!$H$2:$H$95,$B10)</f>
         <v>12</v>
       </c>
-      <c r="F10" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$I$2:$I$101,matches!$B$2:$B$101,$A10,matches!$H$2:$H$101,$B10, matches!$F$2:$F$101, 1)</f>
+      <c r="F10" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A10,matches!$H$2:$H$95,$B10, matches!$F$2:$F$95, 1)</f>
         <v>12</v>
       </c>
-      <c r="G10" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" s="18" t="s">
+      <c r="G10" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="17" t="str">
+      <c r="I10" s="18" t="str">
         <f aca="false">VLOOKUP(B10,all_products!$A$2:$C$20, 3, 0)</f>
         <v>Tnuva Product 9</v>
       </c>
-      <c r="J10" s="17" t="str">
+      <c r="J10" s="18" t="str">
         <f aca="false">VLOOKUP($B10, all_products!$A$2:$G$20, 4, 0)</f>
         <v>Sausage/Deli</v>
       </c>
-      <c r="K10" s="17" t="n">
+      <c r="K10" s="18" t="n">
         <f aca="false">VLOOKUP($B10, all_products!$A$2:$G$20, 5, 0)</f>
         <v>260</v>
       </c>
-      <c r="L10" s="17" t="n">
+      <c r="L10" s="18" t="n">
         <f aca="false">VLOOKUP($B10, all_products!$A$2:$G$20, 6, 0)</f>
         <v>810</v>
       </c>
-      <c r="M10" s="17" t="str">
+      <c r="M10" s="18" t="str">
         <f aca="false">VLOOKUP($B10, all_products!$A$2:$G$20, 7, 0)</f>
         <v>Tnuva</v>
       </c>
-      <c r="N10" s="17" t="str">
+      <c r="N10" s="18" t="str">
         <f aca="false">VLOOKUP($B10, all_products!$A$2:$L$36, 8, 0)</f>
         <v>טירת צבי</v>
       </c>
-      <c r="O10" s="17" t="n">
+      <c r="O10" s="18" t="n">
         <f aca="false">VLOOKUP($B10, all_products!$A$2:$L$36, 9, 0)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="17" t="str">
+      <c r="P10" s="18" t="str">
         <f aca="false">VLOOKUP($B10, all_products!$A$2:$L$36, 10, 0)</f>
         <v>SKU</v>
       </c>
-      <c r="Q10" s="17" t="n">
+      <c r="Q10" s="18" t="n">
         <f aca="false">VLOOKUP($B10, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R10" s="17" t="n">
+      <c r="R10" s="18" t="n">
         <f aca="false">VLOOKUP($B10, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="19" t="n">
+      <c r="A11" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="20" t="n">
         <v>13</v>
       </c>
-      <c r="C11" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$J$2:$J$101,matches!$B$2:$B$101,$A11,matches!$H$2:$H$101,$B11)</f>
-        <v>1</v>
-      </c>
-      <c r="D11" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$J$2:$J$101,matches!$B$2:$B$101,$A11,matches!$H$2:$H$101,$B11, matches!$F$2:$F$101, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="E11" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$I$2:$I$101,matches!$B$2:$B$101,$A11,matches!$H$2:$H$101,$B11)</f>
+      <c r="C11" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A11,matches!$H$2:$H$95,$B11)</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A11,matches!$H$2:$H$95,$B11, matches!$F$2:$F$95, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A11,matches!$H$2:$H$95,$B11)</f>
         <v>17</v>
       </c>
-      <c r="F11" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$I$2:$I$101,matches!$B$2:$B$101,$A11,matches!$H$2:$H$101,$B11, matches!$F$2:$F$101, 1)</f>
+      <c r="F11" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A11,matches!$H$2:$H$95,$B11, matches!$F$2:$F$95, 1)</f>
         <v>17</v>
       </c>
-      <c r="G11" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" s="18" t="s">
+      <c r="G11" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="17" t="str">
+      <c r="I11" s="18" t="str">
         <f aca="false">VLOOKUP(B11,all_products!$A$2:$C$20, 3, 0)</f>
         <v>Tnuva Product 13</v>
       </c>
-      <c r="J11" s="17" t="str">
+      <c r="J11" s="18" t="str">
         <f aca="false">VLOOKUP($B11, all_products!$A$2:$G$20, 4, 0)</f>
         <v>Special</v>
       </c>
-      <c r="K11" s="17" t="n">
+      <c r="K11" s="18" t="n">
         <f aca="false">VLOOKUP($B11, all_products!$A$2:$G$20, 5, 0)</f>
         <v>259</v>
       </c>
-      <c r="L11" s="17" t="n">
+      <c r="L11" s="18" t="n">
         <f aca="false">VLOOKUP($B11, all_products!$A$2:$G$20, 6, 0)</f>
         <v>810</v>
       </c>
-      <c r="M11" s="17" t="str">
+      <c r="M11" s="18" t="str">
         <f aca="false">VLOOKUP($B11, all_products!$A$2:$G$20, 7, 0)</f>
         <v>Tnuva</v>
       </c>
-      <c r="N11" s="17" t="str">
+      <c r="N11" s="18" t="str">
         <f aca="false">VLOOKUP($B11, all_products!$A$2:$L$36, 8, 0)</f>
         <v>חלבי</v>
       </c>
-      <c r="O11" s="17" t="n">
+      <c r="O11" s="18" t="n">
         <f aca="false">VLOOKUP($B11, all_products!$A$2:$L$36, 9, 0)</f>
         <v>0</v>
       </c>
-      <c r="P11" s="17" t="str">
+      <c r="P11" s="18" t="str">
         <f aca="false">VLOOKUP($B11, all_products!$A$2:$L$36, 10, 0)</f>
         <v>SKU</v>
       </c>
-      <c r="Q11" s="17" t="n">
+      <c r="Q11" s="18" t="n">
         <f aca="false">VLOOKUP($B11, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R11" s="17" t="n">
+      <c r="R11" s="18" t="n">
         <f aca="false">VLOOKUP($B11, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="17" t="n">
+      <c r="A12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="18" t="n">
         <v>14</v>
       </c>
-      <c r="C12" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$J$2:$J$101,matches!$B$2:$B$101,$A12,matches!$H$2:$H$101,$B12)</f>
-        <v>1</v>
-      </c>
-      <c r="D12" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$J$2:$J$101,matches!$B$2:$B$101,$A12,matches!$H$2:$H$101,$B12, matches!$F$2:$F$101, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="E12" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$I$2:$I$101,matches!$B$2:$B$101,$A12,matches!$H$2:$H$101,$B12)</f>
+      <c r="C12" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A12,matches!$H$2:$H$95,$B12)</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A12,matches!$H$2:$H$95,$B12, matches!$F$2:$F$95, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A12,matches!$H$2:$H$95,$B12)</f>
         <v>10</v>
       </c>
-      <c r="F12" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$I$2:$I$101,matches!$B$2:$B$101,$A12,matches!$H$2:$H$101,$B12, matches!$F$2:$F$101, 1)</f>
+      <c r="F12" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A12,matches!$H$2:$H$95,$B12, matches!$F$2:$F$95, 1)</f>
         <v>10</v>
       </c>
-      <c r="G12" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12" s="18" t="s">
+      <c r="G12" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="17" t="str">
+      <c r="I12" s="18" t="str">
         <f aca="false">VLOOKUP(B12,all_products!$A$2:$C$20, 3, 0)</f>
         <v>Tnuva Product Empty 14</v>
       </c>
-      <c r="J12" s="17" t="str">
+      <c r="J12" s="18" t="str">
         <f aca="false">VLOOKUP($B12, all_products!$A$2:$G$20, 4, 0)</f>
         <v>Butter</v>
       </c>
-      <c r="K12" s="17" t="n">
+      <c r="K12" s="18" t="n">
         <f aca="false">VLOOKUP($B12, all_products!$A$2:$G$20, 5, 0)</f>
         <v>256</v>
       </c>
-      <c r="L12" s="17" t="n">
+      <c r="L12" s="18" t="n">
         <f aca="false">VLOOKUP($B12, all_products!$A$2:$G$20, 6, 0)</f>
         <v>810</v>
       </c>
-      <c r="M12" s="17" t="str">
+      <c r="M12" s="18" t="str">
         <f aca="false">VLOOKUP($B12, all_products!$A$2:$G$20, 7, 0)</f>
         <v>Tnuva</v>
       </c>
-      <c r="N12" s="17" t="str">
+      <c r="N12" s="18" t="str">
         <f aca="false">VLOOKUP($B12, all_products!$A$2:$L$36, 8, 0)</f>
         <v>חלבי</v>
       </c>
-      <c r="O12" s="17" t="n">
+      <c r="O12" s="18" t="n">
         <f aca="false">VLOOKUP($B12, all_products!$A$2:$L$36, 9, 0)</f>
         <v>0</v>
       </c>
-      <c r="P12" s="17" t="str">
+      <c r="P12" s="18" t="str">
         <f aca="false">VLOOKUP($B12, all_products!$A$2:$L$36, 10, 0)</f>
         <v>Empty</v>
       </c>
-      <c r="Q12" s="17" t="n">
+      <c r="Q12" s="18" t="n">
         <f aca="false">VLOOKUP($B12, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="17" t="n">
+      <c r="R12" s="18" t="n">
         <f aca="false">VLOOKUP($B12, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="17" t="n">
+      <c r="A13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="18" t="n">
         <v>15</v>
       </c>
-      <c r="C13" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$J$2:$J$101,matches!$B$2:$B$101,$A13,matches!$H$2:$H$101,$B13)</f>
-        <v>1</v>
-      </c>
-      <c r="D13" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$J$2:$J$101,matches!$B$2:$B$101,$A13,matches!$H$2:$H$101,$B13, matches!$F$2:$F$101, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="E13" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$I$2:$I$101,matches!$B$2:$B$101,$A13,matches!$H$2:$H$101,$B13)</f>
+      <c r="C13" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A13,matches!$H$2:$H$95,$B13)</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A13,matches!$H$2:$H$95,$B13, matches!$F$2:$F$95, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A13,matches!$H$2:$H$95,$B13)</f>
         <v>3</v>
       </c>
-      <c r="F13" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$I$2:$I$101,matches!$B$2:$B$101,$A13,matches!$H$2:$H$101,$B13, matches!$F$2:$F$101, 1)</f>
+      <c r="F13" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A13,matches!$H$2:$H$95,$B13, matches!$F$2:$F$95, 1)</f>
         <v>3</v>
       </c>
-      <c r="G13" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" s="18" t="s">
+      <c r="G13" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="17" t="str">
+      <c r="I13" s="18" t="str">
         <f aca="false">VLOOKUP(B13,all_products!$A$2:$C$20, 3, 0)</f>
         <v>Tnuva Product 15</v>
       </c>
-      <c r="J13" s="17" t="str">
+      <c r="J13" s="18" t="str">
         <f aca="false">VLOOKUP($B13, all_products!$A$2:$G$20, 4, 0)</f>
         <v>Sausage/Deli</v>
       </c>
-      <c r="K13" s="17" t="n">
+      <c r="K13" s="18" t="n">
         <f aca="false">VLOOKUP($B13, all_products!$A$2:$G$20, 5, 0)</f>
         <v>260</v>
       </c>
-      <c r="L13" s="17" t="n">
+      <c r="L13" s="18" t="n">
         <f aca="false">VLOOKUP($B13, all_products!$A$2:$G$20, 6, 0)</f>
         <v>810</v>
       </c>
-      <c r="M13" s="17" t="str">
+      <c r="M13" s="18" t="str">
         <f aca="false">VLOOKUP($B13, all_products!$A$2:$G$20, 7, 0)</f>
         <v>Tnuva</v>
       </c>
-      <c r="N13" s="17" t="str">
+      <c r="N13" s="18" t="str">
         <f aca="false">VLOOKUP($B13, all_products!$A$2:$L$36, 8, 0)</f>
         <v>טירת צבי</v>
       </c>
-      <c r="O13" s="17" t="n">
+      <c r="O13" s="18" t="n">
         <f aca="false">VLOOKUP($B13, all_products!$A$2:$L$36, 9, 0)</f>
         <v>0</v>
       </c>
-      <c r="P13" s="17" t="str">
+      <c r="P13" s="18" t="str">
         <f aca="false">VLOOKUP($B13, all_products!$A$2:$L$36, 10, 0)</f>
         <v>Other</v>
       </c>
-      <c r="Q13" s="17" t="n">
+      <c r="Q13" s="18" t="n">
         <f aca="false">VLOOKUP($B13, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R13" s="17" t="n">
+      <c r="R13" s="18" t="n">
         <f aca="false">VLOOKUP($B13, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="17" t="n">
+      <c r="A14" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="18" t="n">
         <v>16</v>
       </c>
-      <c r="C14" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$J$2:$J$101,matches!$B$2:$B$101,$A14,matches!$H$2:$H$101,$B14)</f>
-        <v>1</v>
-      </c>
-      <c r="D14" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$J$2:$J$101,matches!$B$2:$B$101,$A14,matches!$H$2:$H$101,$B14, matches!$F$2:$F$101, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="E14" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$I$2:$I$101,matches!$B$2:$B$101,$A14,matches!$H$2:$H$101,$B14)</f>
+      <c r="C14" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A14,matches!$H$2:$H$95,$B14)</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A14,matches!$H$2:$H$95,$B14, matches!$F$2:$F$95, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A14,matches!$H$2:$H$95,$B14)</f>
         <v>8</v>
       </c>
-      <c r="F14" s="17" t="n">
-        <f aca="false">SUMIFS(matches!$I$2:$I$101,matches!$B$2:$B$101,$A14,matches!$H$2:$H$101,$B14, matches!$F$2:$F$101, 1)</f>
+      <c r="F14" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A14,matches!$H$2:$H$95,$B14, matches!$F$2:$F$95, 1)</f>
         <v>8</v>
       </c>
-      <c r="G14" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="H14" s="18" t="s">
+      <c r="G14" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="17" t="str">
-        <f aca="false">VLOOKUP(B14,all_products!$A$2:$C$20, 3, 0)</f>
+      <c r="I14" s="18" t="str">
+        <f aca="false">VLOOKUP(B14,all_products!$A$2:$C$30, 3, 0)</f>
         <v>Product 1</v>
       </c>
-      <c r="J14" s="17" t="str">
-        <f aca="false">VLOOKUP($B14, all_products!$A$2:$G$20, 4, 0)</f>
+      <c r="J14" s="18" t="str">
+        <f aca="false">VLOOKUP($B14, all_products!$A$2:$G$30, 4, 0)</f>
         <v>Yogurt</v>
       </c>
-      <c r="K14" s="17" t="n">
-        <f aca="false">VLOOKUP($B14, all_products!$A$2:$G$20, 5, 0)</f>
+      <c r="K14" s="18" t="n">
+        <f aca="false">VLOOKUP($B14, all_products!$A$2:$G$30, 5, 0)</f>
         <v>252</v>
       </c>
-      <c r="L14" s="17" t="n">
-        <f aca="false">VLOOKUP($B14, all_products!$A$2:$G$20, 6, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="M14" s="17" t="str">
-        <f aca="false">VLOOKUP($B14, all_products!$A$2:$G$20, 7, 0)</f>
+      <c r="L14" s="18" t="n">
+        <f aca="false">VLOOKUP($B14, all_products!$A$2:$G$30, 6, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="M14" s="18" t="str">
+        <f aca="false">VLOOKUP($B14, all_products!$A$2:$G$30, 7, 0)</f>
         <v>Other</v>
       </c>
-      <c r="N14" s="17" t="str">
+      <c r="N14" s="18" t="str">
         <f aca="false">VLOOKUP($B14, all_products!$A$2:$L$36, 8, 0)</f>
         <v>חלבי</v>
       </c>
-      <c r="O14" s="17" t="n">
+      <c r="O14" s="18" t="n">
         <f aca="false">VLOOKUP($B14, all_products!$A$2:$L$36, 9, 0)</f>
         <v>0</v>
       </c>
-      <c r="P14" s="17" t="str">
+      <c r="P14" s="18" t="str">
         <f aca="false">VLOOKUP($B14, all_products!$A$2:$L$36, 10, 0)</f>
         <v>SKU</v>
       </c>
-      <c r="Q14" s="17" t="n">
+      <c r="Q14" s="18" t="n">
         <f aca="false">VLOOKUP($B14, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R14" s="17" t="n">
+      <c r="R14" s="18" t="n">
         <f aca="false">VLOOKUP($B14, all_products!$A$2:$L$36, 12, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" s="21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" s="21" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A15,matches!$H$2:$H$95,$B15)</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="21" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A15,matches!$H$2:$H$95,$B15, matches!$F$2:$F$95, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="21" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A15,matches!$H$2:$H$95,$B15)</f>
+        <v>7</v>
+      </c>
+      <c r="F15" s="21" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A15,matches!$H$2:$H$95,$B15, matches!$F$2:$F$95, 1)</f>
+        <v>7</v>
+      </c>
+      <c r="G15" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="21" t="str">
+        <f aca="false">VLOOKUP(B15,all_products!$A$2:$C$30, 3, 0)</f>
+        <v>Tnuva Product 7</v>
+      </c>
+      <c r="J15" s="21" t="str">
+        <f aca="false">VLOOKUP($B15, all_products!$A$2:$G$30, 4, 0)</f>
+        <v>Sausage/Deli</v>
+      </c>
+      <c r="K15" s="21" t="n">
+        <f aca="false">VLOOKUP($B15, all_products!$A$2:$G$30, 5, 0)</f>
+        <v>260</v>
+      </c>
+      <c r="L15" s="21" t="n">
+        <f aca="false">VLOOKUP($B15, all_products!$A$2:$G$30, 6, 0)</f>
+        <v>810</v>
+      </c>
+      <c r="M15" s="21" t="str">
+        <f aca="false">VLOOKUP($B15, all_products!$A$2:$G$30, 7, 0)</f>
+        <v>Tnuva</v>
+      </c>
+      <c r="N15" s="21" t="str">
+        <f aca="false">VLOOKUP($B15, all_products!$A$2:$L$36, 8, 0)</f>
+        <v>טירת צבי</v>
+      </c>
+      <c r="O15" s="21" t="n">
+        <f aca="false">VLOOKUP($B15, all_products!$A$2:$L$36, 9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="21" t="str">
+        <f aca="false">VLOOKUP($B15, all_products!$A$2:$L$36, 10, 0)</f>
+        <v>SKU</v>
+      </c>
+      <c r="Q15" s="21" t="n">
+        <f aca="false">VLOOKUP($B15, all_products!$A$2:$L$36, 11, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="21" t="n">
+        <f aca="false">VLOOKUP($B15, all_products!$A$2:$L$36, 12, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" s="21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" s="21" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A16,matches!$H$2:$H$95,$B16)</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="21" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A16,matches!$H$2:$H$95,$B16, matches!$F$2:$F$95, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="21" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A16,matches!$H$2:$H$95,$B16)</f>
+        <v>11</v>
+      </c>
+      <c r="F16" s="21" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A16,matches!$H$2:$H$95,$B16, matches!$F$2:$F$95, 1)</f>
+        <v>11</v>
+      </c>
+      <c r="G16" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="21" t="str">
+        <f aca="false">VLOOKUP(B16,all_products!$A$2:$C$30, 3, 0)</f>
+        <v>Tnuva Product 8</v>
+      </c>
+      <c r="J16" s="21" t="str">
+        <f aca="false">VLOOKUP($B16, all_products!$A$2:$G$30, 4, 0)</f>
+        <v>Sausage/Deli</v>
+      </c>
+      <c r="K16" s="21" t="n">
+        <f aca="false">VLOOKUP($B16, all_products!$A$2:$G$30, 5, 0)</f>
+        <v>260</v>
+      </c>
+      <c r="L16" s="21" t="n">
+        <f aca="false">VLOOKUP($B16, all_products!$A$2:$G$30, 6, 0)</f>
+        <v>810</v>
+      </c>
+      <c r="M16" s="21" t="str">
+        <f aca="false">VLOOKUP($B16, all_products!$A$2:$G$30, 7, 0)</f>
+        <v>Tnuva</v>
+      </c>
+      <c r="N16" s="21" t="str">
+        <f aca="false">VLOOKUP($B16, all_products!$A$2:$L$36, 8, 0)</f>
+        <v>טירת צבי</v>
+      </c>
+      <c r="O16" s="21" t="n">
+        <f aca="false">VLOOKUP($B16, all_products!$A$2:$L$36, 9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="21" t="str">
+        <f aca="false">VLOOKUP($B16, all_products!$A$2:$L$36, 10, 0)</f>
+        <v>SKU</v>
+      </c>
+      <c r="Q16" s="21" t="n">
+        <f aca="false">VLOOKUP($B16, all_products!$A$2:$L$36, 11, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="21" t="n">
+        <f aca="false">VLOOKUP($B16, all_products!$A$2:$L$36, 12, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="23" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" s="21" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A17,matches!$H$2:$H$95,$B17)</f>
+        <v>1</v>
+      </c>
+      <c r="D17" s="21" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A17,matches!$H$2:$H$95,$B17, matches!$F$2:$F$95, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="21" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A17,matches!$H$2:$H$95,$B17)</f>
+        <v>12</v>
+      </c>
+      <c r="F17" s="21" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A17,matches!$H$2:$H$95,$B17, matches!$F$2:$F$95, 1)</f>
+        <v>12</v>
+      </c>
+      <c r="G17" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="21" t="str">
+        <f aca="false">VLOOKUP(B17,all_products!$A$2:$C$30, 3, 0)</f>
+        <v>Tnuva Product 9</v>
+      </c>
+      <c r="J17" s="21" t="str">
+        <f aca="false">VLOOKUP($B17, all_products!$A$2:$G$30, 4, 0)</f>
+        <v>Sausage/Deli</v>
+      </c>
+      <c r="K17" s="21" t="n">
+        <f aca="false">VLOOKUP($B17, all_products!$A$2:$G$30, 5, 0)</f>
+        <v>260</v>
+      </c>
+      <c r="L17" s="21" t="n">
+        <f aca="false">VLOOKUP($B17, all_products!$A$2:$G$30, 6, 0)</f>
+        <v>810</v>
+      </c>
+      <c r="M17" s="21" t="str">
+        <f aca="false">VLOOKUP($B17, all_products!$A$2:$G$30, 7, 0)</f>
+        <v>Tnuva</v>
+      </c>
+      <c r="N17" s="21" t="str">
+        <f aca="false">VLOOKUP($B17, all_products!$A$2:$L$36, 8, 0)</f>
+        <v>טירת צבי</v>
+      </c>
+      <c r="O17" s="21" t="n">
+        <f aca="false">VLOOKUP($B17, all_products!$A$2:$L$36, 9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="21" t="str">
+        <f aca="false">VLOOKUP($B17, all_products!$A$2:$L$36, 10, 0)</f>
+        <v>SKU</v>
+      </c>
+      <c r="Q17" s="21" t="n">
+        <f aca="false">VLOOKUP($B17, all_products!$A$2:$L$36, 11, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="21" t="n">
+        <f aca="false">VLOOKUP($B17, all_products!$A$2:$L$36, 12, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="21" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A18,matches!$H$2:$H$95,$B18)</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="21" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A18,matches!$H$2:$H$95,$B18, matches!$F$2:$F$95, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="21" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A18,matches!$H$2:$H$95,$B18)</f>
+        <v>15</v>
+      </c>
+      <c r="F18" s="21" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A18,matches!$H$2:$H$95,$B18, matches!$F$2:$F$95, 1)</f>
+        <v>15</v>
+      </c>
+      <c r="G18" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="21" t="str">
+        <f aca="false">VLOOKUP(B18,all_products!$A$2:$C$30, 3, 0)</f>
+        <v>Tnuva Product 3</v>
+      </c>
+      <c r="J18" s="21" t="str">
+        <f aca="false">VLOOKUP($B18, all_products!$A$2:$G$30, 4, 0)</f>
+        <v>Yogurt</v>
+      </c>
+      <c r="K18" s="21" t="n">
+        <f aca="false">VLOOKUP($B18, all_products!$A$2:$G$30, 5, 0)</f>
+        <v>252</v>
+      </c>
+      <c r="L18" s="21" t="n">
+        <f aca="false">VLOOKUP($B18, all_products!$A$2:$G$30, 6, 0)</f>
+        <v>810</v>
+      </c>
+      <c r="M18" s="21" t="str">
+        <f aca="false">VLOOKUP($B18, all_products!$A$2:$G$30, 7, 0)</f>
+        <v>Tnuva</v>
+      </c>
+      <c r="N18" s="21" t="str">
+        <f aca="false">VLOOKUP($B18, all_products!$A$2:$L$36, 8, 0)</f>
+        <v>חלבי</v>
+      </c>
+      <c r="O18" s="21" t="n">
+        <f aca="false">VLOOKUP($B18, all_products!$A$2:$L$36, 9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="21" t="str">
+        <f aca="false">VLOOKUP($B18, all_products!$A$2:$L$36, 10, 0)</f>
+        <v>SKU</v>
+      </c>
+      <c r="Q18" s="21" t="n">
+        <f aca="false">VLOOKUP($B18, all_products!$A$2:$L$36, 11, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="21" t="n">
+        <f aca="false">VLOOKUP($B18, all_products!$A$2:$L$36, 12, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" s="21" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" s="21" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A19,matches!$H$2:$H$95,$B19)</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="21" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A19,matches!$H$2:$H$95,$B19, matches!$F$2:$F$95, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="21" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A19,matches!$H$2:$H$95,$B19)</f>
+        <v>10</v>
+      </c>
+      <c r="F19" s="21" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A19,matches!$H$2:$H$95,$B19, matches!$F$2:$F$95, 1)</f>
+        <v>10</v>
+      </c>
+      <c r="G19" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="21" t="str">
+        <f aca="false">VLOOKUP(B19,all_products!$A$2:$C$30, 3, 0)</f>
+        <v>Product 2</v>
+      </c>
+      <c r="J19" s="21" t="str">
+        <f aca="false">VLOOKUP($B19, all_products!$A$2:$G$30, 4, 0)</f>
+        <v>Sausage/Deli</v>
+      </c>
+      <c r="K19" s="21" t="n">
+        <f aca="false">VLOOKUP($B19, all_products!$A$2:$G$30, 5, 0)</f>
+        <v>260</v>
+      </c>
+      <c r="L19" s="21" t="n">
+        <f aca="false">VLOOKUP($B19, all_products!$A$2:$G$30, 6, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="M19" s="21" t="str">
+        <f aca="false">VLOOKUP($B19, all_products!$A$2:$G$30, 7, 0)</f>
+        <v>Other</v>
+      </c>
+      <c r="N19" s="21" t="str">
+        <f aca="false">VLOOKUP($B19, all_products!$A$2:$L$36, 8, 0)</f>
+        <v>טירת צבי</v>
+      </c>
+      <c r="O19" s="21" t="n">
+        <f aca="false">VLOOKUP($B19, all_products!$A$2:$L$36, 9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="21" t="str">
+        <f aca="false">VLOOKUP($B19, all_products!$A$2:$L$36, 10, 0)</f>
+        <v>SKU</v>
+      </c>
+      <c r="Q19" s="21" t="n">
+        <f aca="false">VLOOKUP($B19, all_products!$A$2:$L$36, 11, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="21" t="n">
+        <f aca="false">VLOOKUP($B19, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
     </row>

--- a/Projects/TNUVAILV2/Tests/Data/test_case.xlsx
+++ b/Projects/TNUVAILV2/Tests/Data/test_case.xlsx
@@ -13,13 +13,13 @@
     <sheet name="scif" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$J$121</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$J$46</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$M$14</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$J$46</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">matches!$A$1:$J$121</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">matches!$A$1:$J$121</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$J$121</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">matches!$A$1:$J$121</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">matches!$A$1:$J$121</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
@@ -37,6 +37,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$M$14</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">scif!$A$1:$M$14</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">scif!$A$1:$M$14</definedName>
@@ -52,6 +53,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">scif!$A$1:$M$14</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">scif!$A$1:$M$14</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">scif!$A$1:$M$14</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">scif!$A$1:$M$14</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="63">
   <si>
     <t xml:space="preserve">probe_match_fk</t>
   </si>
@@ -261,7 +263,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -302,11 +304,6 @@
       <name val="FreeSans"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -463,15 +460,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -564,26 +561,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:19"/>
+  <dimension ref="1:31"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.9285714285714"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1226,8 +1224,404 @@
         <v>1</v>
       </c>
     </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <f aca="false">VLOOKUP(H20, all_products!$A$2:$B$22, 2, 0)</f>
+        <v>10</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>202</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <f aca="false">VLOOKUP(H21, all_products!$A$2:$B$22, 2, 0)</f>
+        <v>12</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>203</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <f aca="false">VLOOKUP(H22, all_products!$A$2:$B$22, 2, 0)</f>
+        <v>12</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>204</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <f aca="false">VLOOKUP(H23, all_products!$A$2:$B$22, 2, 0)</f>
+        <v>8</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>205</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <f aca="false">VLOOKUP(H24, all_products!$A$2:$B$22, 2, 0)</f>
+        <v>8</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>206</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <f aca="false">VLOOKUP(H25, all_products!$A$2:$B$22, 2, 0)</f>
+        <v>12</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>207</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <f aca="false">VLOOKUP(H26, all_products!$A$2:$B$22, 2, 0)</f>
+        <v>6</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>208</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <f aca="false">VLOOKUP(H27, all_products!$A$2:$B$22, 2, 0)</f>
+        <v>20</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>209</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <f aca="false">VLOOKUP(H28, all_products!$A$2:$B$22, 2, 0)</f>
+        <v>16</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <f aca="false">VLOOKUP(H29, all_products!$A$2:$B$22, 2, 0)</f>
+        <v>6</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>211</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <f aca="false">VLOOKUP(H30, all_products!$A$2:$B$22, 2, 0)</f>
+        <v>20</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>212</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <f aca="false">VLOOKUP(H31, all_products!$A$2:$B$22, 2, 0)</f>
+        <v>16</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J121"/>
+  <autoFilter ref="A1:J46"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1247,24 +1641,25 @@
   <dimension ref="1:21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1911,30 +2306,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.9438775510204"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.4030612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2046,7 +2442,7 @@
         <f aca="false">VLOOKUP($B2, all_products!$A$2:$L$36, 8, 0)</f>
         <v>חלבי</v>
       </c>
-      <c r="O2" s="18" t="n">
+      <c r="O2" s="20" t="n">
         <f aca="false">VLOOKUP($B2, all_products!$A$2:$L$36, 9, 0)</f>
         <v>0</v>
       </c>
@@ -2054,11 +2450,11 @@
         <f aca="false">VLOOKUP($B2, all_products!$A$2:$L$36, 10, 0)</f>
         <v>SKU</v>
       </c>
-      <c r="Q2" s="18" t="n">
+      <c r="Q2" s="20" t="n">
         <f aca="false">VLOOKUP($B2, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R2" s="18" t="n">
+      <c r="R2" s="20" t="n">
         <f aca="false">VLOOKUP($B2, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
@@ -2116,7 +2512,7 @@
         <f aca="false">VLOOKUP($B3, all_products!$A$2:$L$36, 8, 0)</f>
         <v>חלבי</v>
       </c>
-      <c r="O3" s="18" t="n">
+      <c r="O3" s="20" t="n">
         <f aca="false">VLOOKUP($B3, all_products!$A$2:$L$36, 9, 0)</f>
         <v>0</v>
       </c>
@@ -2124,11 +2520,11 @@
         <f aca="false">VLOOKUP($B3, all_products!$A$2:$L$36, 10, 0)</f>
         <v>SKU</v>
       </c>
-      <c r="Q3" s="18" t="n">
+      <c r="Q3" s="20" t="n">
         <f aca="false">VLOOKUP($B3, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="18" t="n">
+      <c r="R3" s="20" t="n">
         <f aca="false">VLOOKUP($B3, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
@@ -2186,7 +2582,7 @@
         <f aca="false">VLOOKUP($B4, all_products!$A$2:$L$36, 8, 0)</f>
         <v>חלבי</v>
       </c>
-      <c r="O4" s="18" t="n">
+      <c r="O4" s="20" t="n">
         <f aca="false">VLOOKUP($B4, all_products!$A$2:$L$36, 9, 0)</f>
         <v>0</v>
       </c>
@@ -2194,11 +2590,11 @@
         <f aca="false">VLOOKUP($B4, all_products!$A$2:$L$36, 10, 0)</f>
         <v>SKU</v>
       </c>
-      <c r="Q4" s="18" t="n">
+      <c r="Q4" s="20" t="n">
         <f aca="false">VLOOKUP($B4, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R4" s="18" t="n">
+      <c r="R4" s="20" t="n">
         <f aca="false">VLOOKUP($B4, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
@@ -2256,7 +2652,7 @@
         <f aca="false">VLOOKUP($B5, all_products!$A$2:$L$36, 8, 0)</f>
         <v>חלבי</v>
       </c>
-      <c r="O5" s="18" t="n">
+      <c r="O5" s="20" t="n">
         <f aca="false">VLOOKUP($B5, all_products!$A$2:$L$36, 9, 0)</f>
         <v>0</v>
       </c>
@@ -2264,11 +2660,11 @@
         <f aca="false">VLOOKUP($B5, all_products!$A$2:$L$36, 10, 0)</f>
         <v>SKU</v>
       </c>
-      <c r="Q5" s="18" t="n">
+      <c r="Q5" s="20" t="n">
         <f aca="false">VLOOKUP($B5, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="18" t="n">
+      <c r="R5" s="20" t="n">
         <f aca="false">VLOOKUP($B5, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
@@ -2326,7 +2722,7 @@
         <f aca="false">VLOOKUP($B6, all_products!$A$2:$L$36, 8, 0)</f>
         <v>חלבי</v>
       </c>
-      <c r="O6" s="18" t="n">
+      <c r="O6" s="20" t="n">
         <f aca="false">VLOOKUP($B6, all_products!$A$2:$L$36, 9, 0)</f>
         <v>0</v>
       </c>
@@ -2334,11 +2730,11 @@
         <f aca="false">VLOOKUP($B6, all_products!$A$2:$L$36, 10, 0)</f>
         <v>SKU</v>
       </c>
-      <c r="Q6" s="18" t="n">
+      <c r="Q6" s="20" t="n">
         <f aca="false">VLOOKUP($B6, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="18" t="n">
+      <c r="R6" s="20" t="n">
         <f aca="false">VLOOKUP($B6, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
@@ -2396,7 +2792,7 @@
         <f aca="false">VLOOKUP($B7, all_products!$A$2:$L$36, 8, 0)</f>
         <v>טירת צבי</v>
       </c>
-      <c r="O7" s="18" t="n">
+      <c r="O7" s="20" t="n">
         <f aca="false">VLOOKUP($B7, all_products!$A$2:$L$36, 9, 0)</f>
         <v>0</v>
       </c>
@@ -2404,11 +2800,11 @@
         <f aca="false">VLOOKUP($B7, all_products!$A$2:$L$36, 10, 0)</f>
         <v>SKU</v>
       </c>
-      <c r="Q7" s="18" t="n">
+      <c r="Q7" s="20" t="n">
         <f aca="false">VLOOKUP($B7, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R7" s="18" t="n">
+      <c r="R7" s="20" t="n">
         <f aca="false">VLOOKUP($B7, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
@@ -2466,7 +2862,7 @@
         <f aca="false">VLOOKUP($B8, all_products!$A$2:$L$36, 8, 0)</f>
         <v>טירת צבי</v>
       </c>
-      <c r="O8" s="18" t="n">
+      <c r="O8" s="20" t="n">
         <f aca="false">VLOOKUP($B8, all_products!$A$2:$L$36, 9, 0)</f>
         <v>0</v>
       </c>
@@ -2474,11 +2870,11 @@
         <f aca="false">VLOOKUP($B8, all_products!$A$2:$L$36, 10, 0)</f>
         <v>SKU</v>
       </c>
-      <c r="Q8" s="18" t="n">
+      <c r="Q8" s="20" t="n">
         <f aca="false">VLOOKUP($B8, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R8" s="18" t="n">
+      <c r="R8" s="20" t="n">
         <f aca="false">VLOOKUP($B8, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
@@ -2536,7 +2932,7 @@
         <f aca="false">VLOOKUP($B9, all_products!$A$2:$L$36, 8, 0)</f>
         <v>טירת צבי</v>
       </c>
-      <c r="O9" s="18" t="n">
+      <c r="O9" s="20" t="n">
         <f aca="false">VLOOKUP($B9, all_products!$A$2:$L$36, 9, 0)</f>
         <v>0</v>
       </c>
@@ -2544,11 +2940,11 @@
         <f aca="false">VLOOKUP($B9, all_products!$A$2:$L$36, 10, 0)</f>
         <v>SKU</v>
       </c>
-      <c r="Q9" s="18" t="n">
+      <c r="Q9" s="20" t="n">
         <f aca="false">VLOOKUP($B9, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R9" s="18" t="n">
+      <c r="R9" s="20" t="n">
         <f aca="false">VLOOKUP($B9, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
@@ -2557,7 +2953,7 @@
       <c r="A10" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="B10" s="20" t="n">
+      <c r="B10" s="21" t="n">
         <v>9</v>
       </c>
       <c r="C10" s="18" t="n">
@@ -2606,7 +3002,7 @@
         <f aca="false">VLOOKUP($B10, all_products!$A$2:$L$36, 8, 0)</f>
         <v>טירת צבי</v>
       </c>
-      <c r="O10" s="18" t="n">
+      <c r="O10" s="20" t="n">
         <f aca="false">VLOOKUP($B10, all_products!$A$2:$L$36, 9, 0)</f>
         <v>0</v>
       </c>
@@ -2614,11 +3010,11 @@
         <f aca="false">VLOOKUP($B10, all_products!$A$2:$L$36, 10, 0)</f>
         <v>SKU</v>
       </c>
-      <c r="Q10" s="18" t="n">
+      <c r="Q10" s="20" t="n">
         <f aca="false">VLOOKUP($B10, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R10" s="18" t="n">
+      <c r="R10" s="20" t="n">
         <f aca="false">VLOOKUP($B10, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
@@ -2627,7 +3023,7 @@
       <c r="A11" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="B11" s="20" t="n">
+      <c r="B11" s="21" t="n">
         <v>13</v>
       </c>
       <c r="C11" s="18" t="n">
@@ -2676,7 +3072,7 @@
         <f aca="false">VLOOKUP($B11, all_products!$A$2:$L$36, 8, 0)</f>
         <v>חלבי</v>
       </c>
-      <c r="O11" s="18" t="n">
+      <c r="O11" s="20" t="n">
         <f aca="false">VLOOKUP($B11, all_products!$A$2:$L$36, 9, 0)</f>
         <v>0</v>
       </c>
@@ -2684,11 +3080,11 @@
         <f aca="false">VLOOKUP($B11, all_products!$A$2:$L$36, 10, 0)</f>
         <v>SKU</v>
       </c>
-      <c r="Q11" s="18" t="n">
+      <c r="Q11" s="20" t="n">
         <f aca="false">VLOOKUP($B11, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R11" s="18" t="n">
+      <c r="R11" s="20" t="n">
         <f aca="false">VLOOKUP($B11, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
@@ -2746,7 +3142,7 @@
         <f aca="false">VLOOKUP($B12, all_products!$A$2:$L$36, 8, 0)</f>
         <v>חלבי</v>
       </c>
-      <c r="O12" s="18" t="n">
+      <c r="O12" s="20" t="n">
         <f aca="false">VLOOKUP($B12, all_products!$A$2:$L$36, 9, 0)</f>
         <v>0</v>
       </c>
@@ -2754,11 +3150,11 @@
         <f aca="false">VLOOKUP($B12, all_products!$A$2:$L$36, 10, 0)</f>
         <v>Empty</v>
       </c>
-      <c r="Q12" s="18" t="n">
+      <c r="Q12" s="20" t="n">
         <f aca="false">VLOOKUP($B12, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="18" t="n">
+      <c r="R12" s="20" t="n">
         <f aca="false">VLOOKUP($B12, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
@@ -2816,7 +3212,7 @@
         <f aca="false">VLOOKUP($B13, all_products!$A$2:$L$36, 8, 0)</f>
         <v>טירת צבי</v>
       </c>
-      <c r="O13" s="18" t="n">
+      <c r="O13" s="20" t="n">
         <f aca="false">VLOOKUP($B13, all_products!$A$2:$L$36, 9, 0)</f>
         <v>0</v>
       </c>
@@ -2824,11 +3220,11 @@
         <f aca="false">VLOOKUP($B13, all_products!$A$2:$L$36, 10, 0)</f>
         <v>Other</v>
       </c>
-      <c r="Q13" s="18" t="n">
+      <c r="Q13" s="20" t="n">
         <f aca="false">VLOOKUP($B13, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R13" s="18" t="n">
+      <c r="R13" s="20" t="n">
         <f aca="false">VLOOKUP($B13, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
@@ -2886,7 +3282,7 @@
         <f aca="false">VLOOKUP($B14, all_products!$A$2:$L$36, 8, 0)</f>
         <v>חלבי</v>
       </c>
-      <c r="O14" s="18" t="n">
+      <c r="O14" s="20" t="n">
         <f aca="false">VLOOKUP($B14, all_products!$A$2:$L$36, 9, 0)</f>
         <v>0</v>
       </c>
@@ -2894,362 +3290,782 @@
         <f aca="false">VLOOKUP($B14, all_products!$A$2:$L$36, 10, 0)</f>
         <v>SKU</v>
       </c>
-      <c r="Q14" s="18" t="n">
+      <c r="Q14" s="20" t="n">
         <f aca="false">VLOOKUP($B14, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R14" s="18" t="n">
+      <c r="R14" s="20" t="n">
         <f aca="false">VLOOKUP($B14, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="B15" s="21" t="n">
+    <row r="15" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="C15" s="21" t="n">
+      <c r="C15" s="20" t="n">
         <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A15,matches!$H$2:$H$95,$B15)</f>
         <v>1</v>
       </c>
-      <c r="D15" s="21" t="n">
+      <c r="D15" s="20" t="n">
         <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A15,matches!$H$2:$H$95,$B15, matches!$F$2:$F$95, 1)</f>
         <v>1</v>
       </c>
-      <c r="E15" s="21" t="n">
+      <c r="E15" s="20" t="n">
         <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A15,matches!$H$2:$H$95,$B15)</f>
         <v>7</v>
       </c>
-      <c r="F15" s="21" t="n">
+      <c r="F15" s="20" t="n">
         <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A15,matches!$H$2:$H$95,$B15, matches!$F$2:$F$95, 1)</f>
         <v>7</v>
       </c>
-      <c r="G15" s="21" t="n">
+      <c r="G15" s="20" t="n">
         <v>1</v>
       </c>
       <c r="H15" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="21" t="str">
+      <c r="I15" s="20" t="str">
         <f aca="false">VLOOKUP(B15,all_products!$A$2:$C$30, 3, 0)</f>
         <v>Tnuva Product 7</v>
       </c>
-      <c r="J15" s="21" t="str">
+      <c r="J15" s="20" t="str">
         <f aca="false">VLOOKUP($B15, all_products!$A$2:$G$30, 4, 0)</f>
         <v>Sausage/Deli</v>
       </c>
-      <c r="K15" s="21" t="n">
+      <c r="K15" s="20" t="n">
         <f aca="false">VLOOKUP($B15, all_products!$A$2:$G$30, 5, 0)</f>
         <v>260</v>
       </c>
-      <c r="L15" s="21" t="n">
+      <c r="L15" s="20" t="n">
         <f aca="false">VLOOKUP($B15, all_products!$A$2:$G$30, 6, 0)</f>
         <v>810</v>
       </c>
-      <c r="M15" s="21" t="str">
+      <c r="M15" s="20" t="str">
         <f aca="false">VLOOKUP($B15, all_products!$A$2:$G$30, 7, 0)</f>
         <v>Tnuva</v>
       </c>
-      <c r="N15" s="21" t="str">
+      <c r="N15" s="20" t="str">
         <f aca="false">VLOOKUP($B15, all_products!$A$2:$L$36, 8, 0)</f>
         <v>טירת צבי</v>
       </c>
-      <c r="O15" s="21" t="n">
+      <c r="O15" s="20" t="n">
         <f aca="false">VLOOKUP($B15, all_products!$A$2:$L$36, 9, 0)</f>
         <v>0</v>
       </c>
-      <c r="P15" s="21" t="str">
+      <c r="P15" s="20" t="str">
         <f aca="false">VLOOKUP($B15, all_products!$A$2:$L$36, 10, 0)</f>
         <v>SKU</v>
       </c>
-      <c r="Q15" s="21" t="n">
+      <c r="Q15" s="20" t="n">
         <f aca="false">VLOOKUP($B15, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R15" s="21" t="n">
+      <c r="R15" s="20" t="n">
         <f aca="false">VLOOKUP($B15, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="B16" s="21" t="n">
+    <row r="16" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="C16" s="21" t="n">
+      <c r="C16" s="20" t="n">
         <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A16,matches!$H$2:$H$95,$B16)</f>
         <v>1</v>
       </c>
-      <c r="D16" s="21" t="n">
+      <c r="D16" s="20" t="n">
         <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A16,matches!$H$2:$H$95,$B16, matches!$F$2:$F$95, 1)</f>
         <v>1</v>
       </c>
-      <c r="E16" s="21" t="n">
+      <c r="E16" s="20" t="n">
         <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A16,matches!$H$2:$H$95,$B16)</f>
         <v>11</v>
       </c>
-      <c r="F16" s="21" t="n">
+      <c r="F16" s="20" t="n">
         <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A16,matches!$H$2:$H$95,$B16, matches!$F$2:$F$95, 1)</f>
         <v>11</v>
       </c>
-      <c r="G16" s="21" t="n">
+      <c r="G16" s="20" t="n">
         <v>1</v>
       </c>
       <c r="H16" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="21" t="str">
+      <c r="I16" s="20" t="str">
         <f aca="false">VLOOKUP(B16,all_products!$A$2:$C$30, 3, 0)</f>
         <v>Tnuva Product 8</v>
       </c>
-      <c r="J16" s="21" t="str">
+      <c r="J16" s="20" t="str">
         <f aca="false">VLOOKUP($B16, all_products!$A$2:$G$30, 4, 0)</f>
         <v>Sausage/Deli</v>
       </c>
-      <c r="K16" s="21" t="n">
+      <c r="K16" s="20" t="n">
         <f aca="false">VLOOKUP($B16, all_products!$A$2:$G$30, 5, 0)</f>
         <v>260</v>
       </c>
-      <c r="L16" s="21" t="n">
+      <c r="L16" s="20" t="n">
         <f aca="false">VLOOKUP($B16, all_products!$A$2:$G$30, 6, 0)</f>
         <v>810</v>
       </c>
-      <c r="M16" s="21" t="str">
+      <c r="M16" s="20" t="str">
         <f aca="false">VLOOKUP($B16, all_products!$A$2:$G$30, 7, 0)</f>
         <v>Tnuva</v>
       </c>
-      <c r="N16" s="21" t="str">
+      <c r="N16" s="20" t="str">
         <f aca="false">VLOOKUP($B16, all_products!$A$2:$L$36, 8, 0)</f>
         <v>טירת צבי</v>
       </c>
-      <c r="O16" s="21" t="n">
+      <c r="O16" s="20" t="n">
         <f aca="false">VLOOKUP($B16, all_products!$A$2:$L$36, 9, 0)</f>
         <v>0</v>
       </c>
-      <c r="P16" s="21" t="str">
+      <c r="P16" s="20" t="str">
         <f aca="false">VLOOKUP($B16, all_products!$A$2:$L$36, 10, 0)</f>
         <v>SKU</v>
       </c>
-      <c r="Q16" s="21" t="n">
+      <c r="Q16" s="20" t="n">
         <f aca="false">VLOOKUP($B16, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R16" s="21" t="n">
+      <c r="R16" s="20" t="n">
         <f aca="false">VLOOKUP($B16, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21" t="n">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="20" t="n">
         <v>2</v>
       </c>
       <c r="B17" s="23" t="n">
         <v>9</v>
       </c>
-      <c r="C17" s="21" t="n">
+      <c r="C17" s="20" t="n">
         <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A17,matches!$H$2:$H$95,$B17)</f>
         <v>1</v>
       </c>
-      <c r="D17" s="21" t="n">
+      <c r="D17" s="20" t="n">
         <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A17,matches!$H$2:$H$95,$B17, matches!$F$2:$F$95, 1)</f>
         <v>1</v>
       </c>
-      <c r="E17" s="21" t="n">
+      <c r="E17" s="20" t="n">
         <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A17,matches!$H$2:$H$95,$B17)</f>
         <v>12</v>
       </c>
-      <c r="F17" s="21" t="n">
+      <c r="F17" s="20" t="n">
         <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A17,matches!$H$2:$H$95,$B17, matches!$F$2:$F$95, 1)</f>
         <v>12</v>
       </c>
-      <c r="G17" s="21" t="n">
+      <c r="G17" s="20" t="n">
         <v>1</v>
       </c>
       <c r="H17" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="21" t="str">
+      <c r="I17" s="20" t="str">
         <f aca="false">VLOOKUP(B17,all_products!$A$2:$C$30, 3, 0)</f>
         <v>Tnuva Product 9</v>
       </c>
-      <c r="J17" s="21" t="str">
+      <c r="J17" s="20" t="str">
         <f aca="false">VLOOKUP($B17, all_products!$A$2:$G$30, 4, 0)</f>
         <v>Sausage/Deli</v>
       </c>
-      <c r="K17" s="21" t="n">
+      <c r="K17" s="20" t="n">
         <f aca="false">VLOOKUP($B17, all_products!$A$2:$G$30, 5, 0)</f>
         <v>260</v>
       </c>
-      <c r="L17" s="21" t="n">
+      <c r="L17" s="20" t="n">
         <f aca="false">VLOOKUP($B17, all_products!$A$2:$G$30, 6, 0)</f>
         <v>810</v>
       </c>
-      <c r="M17" s="21" t="str">
+      <c r="M17" s="20" t="str">
         <f aca="false">VLOOKUP($B17, all_products!$A$2:$G$30, 7, 0)</f>
         <v>Tnuva</v>
       </c>
-      <c r="N17" s="21" t="str">
+      <c r="N17" s="20" t="str">
         <f aca="false">VLOOKUP($B17, all_products!$A$2:$L$36, 8, 0)</f>
         <v>טירת צבי</v>
       </c>
-      <c r="O17" s="21" t="n">
+      <c r="O17" s="20" t="n">
         <f aca="false">VLOOKUP($B17, all_products!$A$2:$L$36, 9, 0)</f>
         <v>0</v>
       </c>
-      <c r="P17" s="21" t="str">
+      <c r="P17" s="20" t="str">
         <f aca="false">VLOOKUP($B17, all_products!$A$2:$L$36, 10, 0)</f>
         <v>SKU</v>
       </c>
-      <c r="Q17" s="21" t="n">
+      <c r="Q17" s="20" t="n">
         <f aca="false">VLOOKUP($B17, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R17" s="21" t="n">
+      <c r="R17" s="20" t="n">
         <f aca="false">VLOOKUP($B17, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="B18" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" s="21" t="n">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="20" t="n">
         <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A18,matches!$H$2:$H$95,$B18)</f>
         <v>1</v>
       </c>
-      <c r="D18" s="21" t="n">
+      <c r="D18" s="20" t="n">
         <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A18,matches!$H$2:$H$95,$B18, matches!$F$2:$F$95, 1)</f>
         <v>1</v>
       </c>
-      <c r="E18" s="21" t="n">
+      <c r="E18" s="20" t="n">
         <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A18,matches!$H$2:$H$95,$B18)</f>
         <v>15</v>
       </c>
-      <c r="F18" s="21" t="n">
+      <c r="F18" s="20" t="n">
         <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A18,matches!$H$2:$H$95,$B18, matches!$F$2:$F$95, 1)</f>
         <v>15</v>
       </c>
-      <c r="G18" s="21" t="n">
+      <c r="G18" s="20" t="n">
         <v>1</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="21" t="str">
+      <c r="I18" s="20" t="str">
         <f aca="false">VLOOKUP(B18,all_products!$A$2:$C$30, 3, 0)</f>
         <v>Tnuva Product 3</v>
       </c>
-      <c r="J18" s="21" t="str">
+      <c r="J18" s="20" t="str">
         <f aca="false">VLOOKUP($B18, all_products!$A$2:$G$30, 4, 0)</f>
         <v>Yogurt</v>
       </c>
-      <c r="K18" s="21" t="n">
+      <c r="K18" s="20" t="n">
         <f aca="false">VLOOKUP($B18, all_products!$A$2:$G$30, 5, 0)</f>
         <v>252</v>
       </c>
-      <c r="L18" s="21" t="n">
+      <c r="L18" s="20" t="n">
         <f aca="false">VLOOKUP($B18, all_products!$A$2:$G$30, 6, 0)</f>
         <v>810</v>
       </c>
-      <c r="M18" s="21" t="str">
+      <c r="M18" s="20" t="str">
         <f aca="false">VLOOKUP($B18, all_products!$A$2:$G$30, 7, 0)</f>
         <v>Tnuva</v>
       </c>
-      <c r="N18" s="21" t="str">
+      <c r="N18" s="20" t="str">
         <f aca="false">VLOOKUP($B18, all_products!$A$2:$L$36, 8, 0)</f>
         <v>חלבי</v>
       </c>
-      <c r="O18" s="21" t="n">
+      <c r="O18" s="20" t="n">
         <f aca="false">VLOOKUP($B18, all_products!$A$2:$L$36, 9, 0)</f>
         <v>0</v>
       </c>
-      <c r="P18" s="21" t="str">
+      <c r="P18" s="20" t="str">
         <f aca="false">VLOOKUP($B18, all_products!$A$2:$L$36, 10, 0)</f>
         <v>SKU</v>
       </c>
-      <c r="Q18" s="21" t="n">
+      <c r="Q18" s="20" t="n">
         <f aca="false">VLOOKUP($B18, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R18" s="21" t="n">
+      <c r="R18" s="20" t="n">
         <f aca="false">VLOOKUP($B18, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="B19" s="21" t="n">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" s="20" t="n">
         <v>17</v>
       </c>
-      <c r="C19" s="21" t="n">
+      <c r="C19" s="20" t="n">
         <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A19,matches!$H$2:$H$95,$B19)</f>
         <v>1</v>
       </c>
-      <c r="D19" s="21" t="n">
+      <c r="D19" s="20" t="n">
         <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A19,matches!$H$2:$H$95,$B19, matches!$F$2:$F$95, 1)</f>
         <v>1</v>
       </c>
-      <c r="E19" s="21" t="n">
+      <c r="E19" s="20" t="n">
         <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A19,matches!$H$2:$H$95,$B19)</f>
         <v>10</v>
       </c>
-      <c r="F19" s="21" t="n">
+      <c r="F19" s="20" t="n">
         <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A19,matches!$H$2:$H$95,$B19, matches!$F$2:$F$95, 1)</f>
         <v>10</v>
       </c>
-      <c r="G19" s="21" t="n">
+      <c r="G19" s="20" t="n">
         <v>1</v>
       </c>
       <c r="H19" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="21" t="str">
+      <c r="I19" s="20" t="str">
         <f aca="false">VLOOKUP(B19,all_products!$A$2:$C$30, 3, 0)</f>
         <v>Product 2</v>
       </c>
-      <c r="J19" s="21" t="str">
+      <c r="J19" s="20" t="str">
         <f aca="false">VLOOKUP($B19, all_products!$A$2:$G$30, 4, 0)</f>
         <v>Sausage/Deli</v>
       </c>
-      <c r="K19" s="21" t="n">
+      <c r="K19" s="20" t="n">
         <f aca="false">VLOOKUP($B19, all_products!$A$2:$G$30, 5, 0)</f>
         <v>260</v>
       </c>
-      <c r="L19" s="21" t="n">
+      <c r="L19" s="20" t="n">
         <f aca="false">VLOOKUP($B19, all_products!$A$2:$G$30, 6, 0)</f>
         <v>2</v>
       </c>
-      <c r="M19" s="21" t="str">
+      <c r="M19" s="20" t="str">
         <f aca="false">VLOOKUP($B19, all_products!$A$2:$G$30, 7, 0)</f>
         <v>Other</v>
       </c>
-      <c r="N19" s="21" t="str">
+      <c r="N19" s="20" t="str">
         <f aca="false">VLOOKUP($B19, all_products!$A$2:$L$36, 8, 0)</f>
         <v>טירת צבי</v>
       </c>
-      <c r="O19" s="21" t="n">
+      <c r="O19" s="20" t="n">
         <f aca="false">VLOOKUP($B19, all_products!$A$2:$L$36, 9, 0)</f>
         <v>0</v>
       </c>
-      <c r="P19" s="21" t="str">
+      <c r="P19" s="20" t="str">
         <f aca="false">VLOOKUP($B19, all_products!$A$2:$L$36, 10, 0)</f>
         <v>SKU</v>
       </c>
-      <c r="Q19" s="21" t="n">
+      <c r="Q19" s="20" t="n">
         <f aca="false">VLOOKUP($B19, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R19" s="21" t="n">
+      <c r="R19" s="20" t="n">
         <f aca="false">VLOOKUP($B19, all_products!$A$2:$L$36, 12, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A20,matches!$H$2:$H$95,$B20)</f>
+        <v>2</v>
+      </c>
+      <c r="D20" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A20,matches!$H$2:$H$95,$B20, matches!$F$2:$F$95, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A20,matches!$H$2:$H$95,$B20)</f>
+        <v>40</v>
+      </c>
+      <c r="F20" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A20,matches!$H$2:$H$95,$B20, matches!$F$2:$F$95, 1)</f>
+        <v>20</v>
+      </c>
+      <c r="G20" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="18" t="str">
+        <f aca="false">VLOOKUP(B20,all_products!$A$2:$C$30, 3, 0)</f>
+        <v>Tnuva Product 4</v>
+      </c>
+      <c r="J20" s="18" t="str">
+        <f aca="false">VLOOKUP($B20, all_products!$A$2:$G$30, 4, 0)</f>
+        <v>Melted</v>
+      </c>
+      <c r="K20" s="18" t="n">
+        <f aca="false">VLOOKUP($B20, all_products!$A$2:$G$30, 5, 0)</f>
+        <v>262</v>
+      </c>
+      <c r="L20" s="18" t="n">
+        <f aca="false">VLOOKUP($B20, all_products!$A$2:$G$30, 6, 0)</f>
+        <v>810</v>
+      </c>
+      <c r="M20" s="18" t="str">
+        <f aca="false">VLOOKUP($B20, all_products!$A$2:$G$30, 7, 0)</f>
+        <v>Tnuva</v>
+      </c>
+      <c r="N20" s="18" t="str">
+        <f aca="false">VLOOKUP($B20, all_products!$A$2:$L$36, 8, 0)</f>
+        <v>חלבי</v>
+      </c>
+      <c r="O20" s="18" t="n">
+        <f aca="false">VLOOKUP($B20, all_products!$A$2:$L$36, 9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="18" t="str">
+        <f aca="false">VLOOKUP($B20, all_products!$A$2:$L$36, 10, 0)</f>
+        <v>SKU</v>
+      </c>
+      <c r="Q20" s="18" t="n">
+        <f aca="false">VLOOKUP($B20, all_products!$A$2:$L$36, 11, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="18" t="n">
+        <f aca="false">VLOOKUP($B20, all_products!$A$2:$L$36, 12, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A21,matches!$H$2:$H$95,$B21)</f>
+        <v>2</v>
+      </c>
+      <c r="D21" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A21,matches!$H$2:$H$95,$B21, matches!$F$2:$F$95, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A21,matches!$H$2:$H$95,$B21)</f>
+        <v>12</v>
+      </c>
+      <c r="F21" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A21,matches!$H$2:$H$95,$B21, matches!$F$2:$F$95, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="G21" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="18" t="str">
+        <f aca="false">VLOOKUP(B21,all_products!$A$2:$C$30, 3, 0)</f>
+        <v>Tnuva Product 6</v>
+      </c>
+      <c r="J21" s="18" t="str">
+        <f aca="false">VLOOKUP($B21, all_products!$A$2:$G$30, 4, 0)</f>
+        <v>Melted</v>
+      </c>
+      <c r="K21" s="18" t="n">
+        <f aca="false">VLOOKUP($B21, all_products!$A$2:$G$30, 5, 0)</f>
+        <v>262</v>
+      </c>
+      <c r="L21" s="18" t="n">
+        <f aca="false">VLOOKUP($B21, all_products!$A$2:$G$30, 6, 0)</f>
+        <v>810</v>
+      </c>
+      <c r="M21" s="18" t="str">
+        <f aca="false">VLOOKUP($B21, all_products!$A$2:$G$30, 7, 0)</f>
+        <v>Tnuva</v>
+      </c>
+      <c r="N21" s="18" t="str">
+        <f aca="false">VLOOKUP($B21, all_products!$A$2:$L$36, 8, 0)</f>
+        <v>חלבי</v>
+      </c>
+      <c r="O21" s="18" t="n">
+        <f aca="false">VLOOKUP($B21, all_products!$A$2:$L$36, 9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="18" t="str">
+        <f aca="false">VLOOKUP($B21, all_products!$A$2:$L$36, 10, 0)</f>
+        <v>SKU</v>
+      </c>
+      <c r="Q21" s="18" t="n">
+        <f aca="false">VLOOKUP($B21, all_products!$A$2:$L$36, 11, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="18" t="n">
+        <f aca="false">VLOOKUP($B21, all_products!$A$2:$L$36, 12, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" s="18" t="n">
+        <v>12</v>
+      </c>
+      <c r="C22" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A22,matches!$H$2:$H$95,$B22)</f>
+        <v>2</v>
+      </c>
+      <c r="D22" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A22,matches!$H$2:$H$95,$B22, matches!$F$2:$F$95, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E22" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A22,matches!$H$2:$H$95,$B22)</f>
+        <v>32</v>
+      </c>
+      <c r="F22" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A22,matches!$H$2:$H$95,$B22, matches!$F$2:$F$95, 1)</f>
+        <v>16</v>
+      </c>
+      <c r="G22" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="18" t="str">
+        <f aca="false">VLOOKUP(B22,all_products!$A$2:$C$30, 3, 0)</f>
+        <v>Tnuva Product 12</v>
+      </c>
+      <c r="J22" s="18" t="str">
+        <f aca="false">VLOOKUP($B22, all_products!$A$2:$G$30, 4, 0)</f>
+        <v>cottage</v>
+      </c>
+      <c r="K22" s="18" t="n">
+        <f aca="false">VLOOKUP($B22, all_products!$A$2:$G$30, 5, 0)</f>
+        <v>269</v>
+      </c>
+      <c r="L22" s="18" t="n">
+        <f aca="false">VLOOKUP($B22, all_products!$A$2:$G$30, 6, 0)</f>
+        <v>810</v>
+      </c>
+      <c r="M22" s="18" t="str">
+        <f aca="false">VLOOKUP($B22, all_products!$A$2:$G$30, 7, 0)</f>
+        <v>Tnuva</v>
+      </c>
+      <c r="N22" s="18" t="str">
+        <f aca="false">VLOOKUP($B22, all_products!$A$2:$L$36, 8, 0)</f>
+        <v>חלבי</v>
+      </c>
+      <c r="O22" s="18" t="n">
+        <f aca="false">VLOOKUP($B22, all_products!$A$2:$L$36, 9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="18" t="str">
+        <f aca="false">VLOOKUP($B22, all_products!$A$2:$L$36, 10, 0)</f>
+        <v>SKU</v>
+      </c>
+      <c r="Q22" s="18" t="n">
+        <f aca="false">VLOOKUP($B22, all_products!$A$2:$L$36, 11, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="18" t="n">
+        <f aca="false">VLOOKUP($B22, all_products!$A$2:$L$36, 12, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" s="18" t="n">
+        <v>14</v>
+      </c>
+      <c r="C23" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A23,matches!$H$2:$H$95,$B23)</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A23,matches!$H$2:$H$95,$B23, matches!$F$2:$F$95, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A23,matches!$H$2:$H$95,$B23)</f>
+        <v>10</v>
+      </c>
+      <c r="F23" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A23,matches!$H$2:$H$95,$B23, matches!$F$2:$F$95, 1)</f>
+        <v>10</v>
+      </c>
+      <c r="G23" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="18" t="str">
+        <f aca="false">VLOOKUP(B23,all_products!$A$2:$C$30, 3, 0)</f>
+        <v>Tnuva Product Empty 14</v>
+      </c>
+      <c r="J23" s="18" t="str">
+        <f aca="false">VLOOKUP($B23, all_products!$A$2:$G$30, 4, 0)</f>
+        <v>Butter</v>
+      </c>
+      <c r="K23" s="18" t="n">
+        <f aca="false">VLOOKUP($B23, all_products!$A$2:$G$30, 5, 0)</f>
+        <v>256</v>
+      </c>
+      <c r="L23" s="18" t="n">
+        <f aca="false">VLOOKUP($B23, all_products!$A$2:$G$30, 6, 0)</f>
+        <v>810</v>
+      </c>
+      <c r="M23" s="18" t="str">
+        <f aca="false">VLOOKUP($B23, all_products!$A$2:$G$30, 7, 0)</f>
+        <v>Tnuva</v>
+      </c>
+      <c r="N23" s="18" t="str">
+        <f aca="false">VLOOKUP($B23, all_products!$A$2:$L$36, 8, 0)</f>
+        <v>חלבי</v>
+      </c>
+      <c r="O23" s="18" t="n">
+        <f aca="false">VLOOKUP($B23, all_products!$A$2:$L$36, 9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="18" t="str">
+        <f aca="false">VLOOKUP($B23, all_products!$A$2:$L$36, 10, 0)</f>
+        <v>Empty</v>
+      </c>
+      <c r="Q23" s="18" t="n">
+        <f aca="false">VLOOKUP($B23, all_products!$A$2:$L$36, 11, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="18" t="n">
+        <f aca="false">VLOOKUP($B23, all_products!$A$2:$L$36, 12, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" s="18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C24" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A24,matches!$H$2:$H$95,$B24)</f>
+        <v>2</v>
+      </c>
+      <c r="D24" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A24,matches!$H$2:$H$95,$B24, matches!$F$2:$F$95, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="E24" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A24,matches!$H$2:$H$95,$B24)</f>
+        <v>16</v>
+      </c>
+      <c r="F24" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A24,matches!$H$2:$H$95,$B24, matches!$F$2:$F$95, 1)</f>
+        <v>16</v>
+      </c>
+      <c r="G24" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="18" t="str">
+        <f aca="false">VLOOKUP(B24,all_products!$A$2:$C$30, 3, 0)</f>
+        <v>Product 1</v>
+      </c>
+      <c r="J24" s="18" t="str">
+        <f aca="false">VLOOKUP($B24, all_products!$A$2:$G$30, 4, 0)</f>
+        <v>Yogurt</v>
+      </c>
+      <c r="K24" s="18" t="n">
+        <f aca="false">VLOOKUP($B24, all_products!$A$2:$G$30, 5, 0)</f>
+        <v>252</v>
+      </c>
+      <c r="L24" s="18" t="n">
+        <f aca="false">VLOOKUP($B24, all_products!$A$2:$G$30, 6, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="M24" s="18" t="str">
+        <f aca="false">VLOOKUP($B24, all_products!$A$2:$G$30, 7, 0)</f>
+        <v>Other</v>
+      </c>
+      <c r="N24" s="18" t="str">
+        <f aca="false">VLOOKUP($B24, all_products!$A$2:$L$36, 8, 0)</f>
+        <v>חלבי</v>
+      </c>
+      <c r="O24" s="18" t="n">
+        <f aca="false">VLOOKUP($B24, all_products!$A$2:$L$36, 9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="18" t="str">
+        <f aca="false">VLOOKUP($B24, all_products!$A$2:$L$36, 10, 0)</f>
+        <v>SKU</v>
+      </c>
+      <c r="Q24" s="18" t="n">
+        <f aca="false">VLOOKUP($B24, all_products!$A$2:$L$36, 11, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="18" t="n">
+        <f aca="false">VLOOKUP($B24, all_products!$A$2:$L$36, 12, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" s="18" t="n">
+        <v>18</v>
+      </c>
+      <c r="C25" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A25,matches!$H$2:$H$95,$B25)</f>
+        <v>3</v>
+      </c>
+      <c r="D25" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$J$2:$J$95,matches!$B$2:$B$95,$A25,matches!$H$2:$H$95,$B25, matches!$F$2:$F$95, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="E25" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A25,matches!$H$2:$H$95,$B25)</f>
+        <v>36</v>
+      </c>
+      <c r="F25" s="18" t="n">
+        <f aca="false">SUMIFS(matches!$I$2:$I$95,matches!$B$2:$B$95,$A25,matches!$H$2:$H$95,$B25, matches!$F$2:$F$95, 1)</f>
+        <v>36</v>
+      </c>
+      <c r="G25" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="18" t="str">
+        <f aca="false">VLOOKUP(B25,all_products!$A$2:$C$30, 3, 0)</f>
+        <v>Product 3</v>
+      </c>
+      <c r="J25" s="18" t="str">
+        <f aca="false">VLOOKUP($B25, all_products!$A$2:$G$30, 4, 0)</f>
+        <v>Melted</v>
+      </c>
+      <c r="K25" s="18" t="n">
+        <f aca="false">VLOOKUP($B25, all_products!$A$2:$G$30, 5, 0)</f>
+        <v>262</v>
+      </c>
+      <c r="L25" s="18" t="n">
+        <f aca="false">VLOOKUP($B25, all_products!$A$2:$G$30, 6, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="M25" s="18" t="str">
+        <f aca="false">VLOOKUP($B25, all_products!$A$2:$G$30, 7, 0)</f>
+        <v>Other</v>
+      </c>
+      <c r="N25" s="18" t="str">
+        <f aca="false">VLOOKUP($B25, all_products!$A$2:$L$36, 8, 0)</f>
+        <v>חלבי</v>
+      </c>
+      <c r="O25" s="18" t="n">
+        <f aca="false">VLOOKUP($B25, all_products!$A$2:$L$36, 9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="18" t="str">
+        <f aca="false">VLOOKUP($B25, all_products!$A$2:$L$36, 10, 0)</f>
+        <v>Other</v>
+      </c>
+      <c r="Q25" s="18" t="n">
+        <f aca="false">VLOOKUP($B25, all_products!$A$2:$L$36, 11, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="18" t="n">
+        <f aca="false">VLOOKUP($B25, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
     </row>

--- a/Projects/TNUVAILV2/Tests/Data/test_case.xlsx
+++ b/Projects/TNUVAILV2/Tests/Data/test_case.xlsx
@@ -13,14 +13,14 @@
     <sheet name="scif" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$J$46</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$M$14</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$J$121</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">matches!$A$1:$J$121</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">matches!$A$1:$J$121</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$J$121</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$M$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$J$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">matches!$A$1:$J$121</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">matches!$A$1:$J$121</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$121</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
@@ -38,6 +38,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$M$14</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">scif!$A$1:$M$14</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">scif!$A$1:$M$14</definedName>
@@ -54,6 +55,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">scif!$A$1:$M$14</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">scif!$A$1:$M$14</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">scif!$A$1:$M$14</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">scif!$A$1:$M$14</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -566,22 +568,22 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.6581632653061"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1621,7 +1623,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J46"/>
+  <autoFilter ref="A1:J121"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1641,25 +1643,25 @@
   <dimension ref="1:21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="topLeft" activeCell="J20" activeCellId="0" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2309,28 +2311,28 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.4030612244898"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="53.7244897959184"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4070,7 +4072,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M14"/>
+  <autoFilter ref="A1:M25"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/TNUVAILV2/Tests/Data/test_case.xlsx
+++ b/Projects/TNUVAILV2/Tests/Data/test_case.xlsx
@@ -13,15 +13,15 @@
     <sheet name="scif" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$J$121</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$M$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$J$46</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">matches!$A$1:$J$121</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">matches!$A$1:$J$121</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$121</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$J$46</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$M$14</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">matches!$A$1:$J$121</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">matches!$A$1:$J$121</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">matches!$A$1:$J$121</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$121</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
@@ -39,7 +39,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$M$14</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">matches!$A$1:$J$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$M$25</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">scif!$A$1:$M$14</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">scif!$A$1:$M$14</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">scif!$A$1:$M$14</definedName>
@@ -56,6 +57,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">scif!$A$1:$M$14</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">scif!$A$1:$M$14</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">scif!$A$1:$M$14</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">scif!$A$1:$M$14</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -568,22 +570,22 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.5255102040816"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1623,7 +1625,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J121"/>
+  <autoFilter ref="A1:J46"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1643,25 +1645,25 @@
   <dimension ref="1:21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J20" activeCellId="0" sqref="J20"/>
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2311,28 +2313,28 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="53.7244897959184"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="53.0510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3712,11 +3714,11 @@
         <f aca="false">VLOOKUP($B20, all_products!$A$2:$L$36, 10, 0)</f>
         <v>SKU</v>
       </c>
-      <c r="Q20" s="18" t="n">
+      <c r="Q20" s="20" t="n">
         <f aca="false">VLOOKUP($B20, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R20" s="18" t="n">
+      <c r="R20" s="20" t="n">
         <f aca="false">VLOOKUP($B20, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
@@ -3782,11 +3784,11 @@
         <f aca="false">VLOOKUP($B21, all_products!$A$2:$L$36, 10, 0)</f>
         <v>SKU</v>
       </c>
-      <c r="Q21" s="18" t="n">
+      <c r="Q21" s="20" t="n">
         <f aca="false">VLOOKUP($B21, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R21" s="18" t="n">
+      <c r="R21" s="20" t="n">
         <f aca="false">VLOOKUP($B21, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
@@ -3852,11 +3854,11 @@
         <f aca="false">VLOOKUP($B22, all_products!$A$2:$L$36, 10, 0)</f>
         <v>SKU</v>
       </c>
-      <c r="Q22" s="18" t="n">
+      <c r="Q22" s="20" t="n">
         <f aca="false">VLOOKUP($B22, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R22" s="18" t="n">
+      <c r="R22" s="20" t="n">
         <f aca="false">VLOOKUP($B22, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
@@ -3922,11 +3924,11 @@
         <f aca="false">VLOOKUP($B23, all_products!$A$2:$L$36, 10, 0)</f>
         <v>Empty</v>
       </c>
-      <c r="Q23" s="18" t="n">
+      <c r="Q23" s="20" t="n">
         <f aca="false">VLOOKUP($B23, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R23" s="18" t="n">
+      <c r="R23" s="20" t="n">
         <f aca="false">VLOOKUP($B23, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
@@ -3992,11 +3994,11 @@
         <f aca="false">VLOOKUP($B24, all_products!$A$2:$L$36, 10, 0)</f>
         <v>SKU</v>
       </c>
-      <c r="Q24" s="18" t="n">
+      <c r="Q24" s="20" t="n">
         <f aca="false">VLOOKUP($B24, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R24" s="18" t="n">
+      <c r="R24" s="20" t="n">
         <f aca="false">VLOOKUP($B24, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
@@ -4062,17 +4064,17 @@
         <f aca="false">VLOOKUP($B25, all_products!$A$2:$L$36, 10, 0)</f>
         <v>Other</v>
       </c>
-      <c r="Q25" s="18" t="n">
+      <c r="Q25" s="20" t="n">
         <f aca="false">VLOOKUP($B25, all_products!$A$2:$L$36, 11, 0)</f>
         <v>0</v>
       </c>
-      <c r="R25" s="18" t="n">
+      <c r="R25" s="20" t="n">
         <f aca="false">VLOOKUP($B25, all_products!$A$2:$L$36, 12, 0)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M25"/>
+  <autoFilter ref="A1:M14"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
